--- a/LR3/table_1_66.xlsx
+++ b/LR3/table_1_66.xlsx
@@ -1,38 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C63404-92A5-4D8B-84A7-1A2A5798523C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17406134-DA20-4DAC-9E87-34510A2001ED}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EAF2AFD9-6AD1-4813-954B-D105A5CF3691}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>№ квартиры</t>
   </si>
@@ -70,12 +66,6 @@
     <t>Средняя площадь, кв.м.</t>
   </si>
   <si>
-    <t>Максимальный скрок просрочки, дней.</t>
-  </si>
-  <si>
-    <t>Максимальная сумма к оплате, руб.</t>
-  </si>
-  <si>
     <t>Аллаяров </t>
   </si>
   <si>
@@ -179,13 +169,25 @@
   </si>
   <si>
     <t>Федько </t>
+  </si>
+  <si>
+    <t>Максимальная сумма, руб.</t>
+  </si>
+  <si>
+    <t>Максимальный срок просрочки, дней</t>
+  </si>
+  <si>
+    <t>Общая сумма, руб.</t>
+  </si>
+  <si>
+    <t>Куропаткин 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -221,6 +223,13 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -243,7 +252,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -268,10 +277,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{AC8B6A2B-AB7E-413B-9E68-50EEA36AA3CD}"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -286,10 +298,420 @@
 </styleSheet>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Лист1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3">
+            <v>70</v>
+          </cell>
+          <cell r="H3">
+            <v>0</v>
+          </cell>
+          <cell r="K3">
+            <v>5082.0000000000009</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="C4">
+            <v>69.5</v>
+          </cell>
+          <cell r="H4">
+            <v>0</v>
+          </cell>
+          <cell r="K4">
+            <v>5045.7000000000007</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="C5">
+            <v>69</v>
+          </cell>
+          <cell r="H5">
+            <v>0</v>
+          </cell>
+          <cell r="K5">
+            <v>5009.4000000000005</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="C6">
+            <v>68.5</v>
+          </cell>
+          <cell r="H6">
+            <v>0</v>
+          </cell>
+          <cell r="K6">
+            <v>4973.1000000000004</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7">
+            <v>68</v>
+          </cell>
+          <cell r="H7">
+            <v>0</v>
+          </cell>
+          <cell r="K7">
+            <v>4936.8</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8">
+            <v>67.5</v>
+          </cell>
+          <cell r="H8">
+            <v>0</v>
+          </cell>
+          <cell r="K8">
+            <v>4900.5000000000009</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="C9">
+            <v>67</v>
+          </cell>
+          <cell r="H9">
+            <v>0</v>
+          </cell>
+          <cell r="K9">
+            <v>4864.2000000000007</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="C10">
+            <v>66.5</v>
+          </cell>
+          <cell r="H10">
+            <v>0</v>
+          </cell>
+          <cell r="K10">
+            <v>4827.9000000000005</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="C11">
+            <v>66</v>
+          </cell>
+          <cell r="H11">
+            <v>0</v>
+          </cell>
+          <cell r="K11">
+            <v>4791.6000000000004</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="C12">
+            <v>65.5</v>
+          </cell>
+          <cell r="H12">
+            <v>1</v>
+          </cell>
+          <cell r="K12">
+            <v>4765.3</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="C13">
+            <v>65</v>
+          </cell>
+          <cell r="H13">
+            <v>2</v>
+          </cell>
+          <cell r="K13">
+            <v>4739.0000000000009</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="C14">
+            <v>64.5</v>
+          </cell>
+          <cell r="H14">
+            <v>3</v>
+          </cell>
+          <cell r="K14">
+            <v>4712.7000000000007</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="C15">
+            <v>64</v>
+          </cell>
+          <cell r="H15">
+            <v>4</v>
+          </cell>
+          <cell r="K15">
+            <v>4686.4000000000005</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="C16">
+            <v>63.5</v>
+          </cell>
+          <cell r="H16">
+            <v>5</v>
+          </cell>
+          <cell r="K16">
+            <v>4660.1000000000004</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="C17">
+            <v>63</v>
+          </cell>
+          <cell r="H17">
+            <v>6</v>
+          </cell>
+          <cell r="K17">
+            <v>4633.8</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="C18">
+            <v>62.5</v>
+          </cell>
+          <cell r="H18">
+            <v>7</v>
+          </cell>
+          <cell r="K18">
+            <v>4607.5000000000009</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="C19">
+            <v>62</v>
+          </cell>
+          <cell r="H19">
+            <v>8</v>
+          </cell>
+          <cell r="K19">
+            <v>4581.2000000000007</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="C20">
+            <v>61.5</v>
+          </cell>
+          <cell r="H20">
+            <v>9</v>
+          </cell>
+          <cell r="K20">
+            <v>4554.9000000000005</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="C21">
+            <v>61</v>
+          </cell>
+          <cell r="H21">
+            <v>10</v>
+          </cell>
+          <cell r="K21">
+            <v>4528.6000000000004</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="C22">
+            <v>60.5</v>
+          </cell>
+          <cell r="H22">
+            <v>11</v>
+          </cell>
+          <cell r="K22">
+            <v>4502.3</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="C23">
+            <v>60</v>
+          </cell>
+          <cell r="H23">
+            <v>12</v>
+          </cell>
+          <cell r="K23">
+            <v>4476.0000000000009</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="C24">
+            <v>59.5</v>
+          </cell>
+          <cell r="H24">
+            <v>13</v>
+          </cell>
+          <cell r="K24">
+            <v>4449.7000000000007</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="C25">
+            <v>59</v>
+          </cell>
+          <cell r="H25">
+            <v>14</v>
+          </cell>
+          <cell r="K25">
+            <v>4423.4000000000005</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="C26">
+            <v>58.5</v>
+          </cell>
+          <cell r="H26">
+            <v>15</v>
+          </cell>
+          <cell r="K26">
+            <v>4397.1000000000004</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="C27">
+            <v>58</v>
+          </cell>
+          <cell r="H27">
+            <v>16</v>
+          </cell>
+          <cell r="K27">
+            <v>4370.8</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="C28">
+            <v>57.5</v>
+          </cell>
+          <cell r="H28">
+            <v>17</v>
+          </cell>
+          <cell r="K28">
+            <v>4344.5000000000009</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="C29">
+            <v>57</v>
+          </cell>
+          <cell r="H29">
+            <v>18</v>
+          </cell>
+          <cell r="K29">
+            <v>4318.2000000000007</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="C30">
+            <v>56.5</v>
+          </cell>
+          <cell r="H30">
+            <v>19</v>
+          </cell>
+          <cell r="K30">
+            <v>4291.9000000000005</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="C31">
+            <v>56</v>
+          </cell>
+          <cell r="H31">
+            <v>20</v>
+          </cell>
+          <cell r="K31">
+            <v>4265.6000000000004</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="C32">
+            <v>55.5</v>
+          </cell>
+          <cell r="H32">
+            <v>21</v>
+          </cell>
+          <cell r="K32">
+            <v>4239.3000000000011</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="C33">
+            <v>55</v>
+          </cell>
+          <cell r="H33">
+            <v>22</v>
+          </cell>
+          <cell r="K33">
+            <v>4213</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="C34">
+            <v>54.5</v>
+          </cell>
+          <cell r="H34">
+            <v>23</v>
+          </cell>
+          <cell r="K34">
+            <v>4186.7000000000007</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="C35">
+            <v>54</v>
+          </cell>
+          <cell r="H35">
+            <v>24</v>
+          </cell>
+          <cell r="K35">
+            <v>2200.2000000000003</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="C36">
+            <v>53.5</v>
+          </cell>
+          <cell r="H36">
+            <v>25</v>
+          </cell>
+          <cell r="K36">
+            <v>2192.0500000000002</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="C37">
+            <v>53</v>
+          </cell>
+          <cell r="H37">
+            <v>26</v>
+          </cell>
+          <cell r="K37">
+            <v>2183.9000000000005</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="C38">
+            <v>52.5</v>
+          </cell>
+          <cell r="H38">
+            <v>27</v>
+          </cell>
+          <cell r="K38">
+            <v>2175.75</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -327,7 +749,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -433,7 +855,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -583,10 +1005,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C5788C5-B1B9-447A-8C7B-1CAD0911E487}">
-  <dimension ref="A1:K42"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -660,7 +1082,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C3" s="4">
         <v>70</v>
@@ -700,7 +1122,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1">
         <f>C3-0.5</f>
@@ -741,7 +1163,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C38" si="5">C4-0.5</f>
@@ -782,7 +1204,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="5"/>
@@ -823,7 +1245,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="5"/>
@@ -864,7 +1286,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="5"/>
@@ -905,7 +1327,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="5"/>
@@ -946,7 +1368,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="5"/>
@@ -987,7 +1409,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="5"/>
@@ -1028,7 +1450,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="5"/>
@@ -1069,7 +1491,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="5"/>
@@ -1110,7 +1532,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="5"/>
@@ -1151,7 +1573,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" si="5"/>
@@ -1192,7 +1614,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" si="5"/>
@@ -1233,7 +1655,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" s="1">
         <f t="shared" si="5"/>
@@ -1274,7 +1696,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" si="5"/>
@@ -1315,7 +1737,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" si="5"/>
@@ -1356,7 +1778,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" si="5"/>
@@ -1397,7 +1819,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" si="5"/>
@@ -1438,7 +1860,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" si="5"/>
@@ -1479,7 +1901,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" si="5"/>
@@ -1520,7 +1942,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="5"/>
@@ -1561,7 +1983,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="5"/>
@@ -1602,7 +2024,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="5"/>
@@ -1643,7 +2065,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="5"/>
@@ -1684,7 +2106,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="5"/>
@@ -1725,7 +2147,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="5"/>
@@ -1766,7 +2188,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="5"/>
@@ -1807,7 +2229,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="5"/>
@@ -1848,7 +2270,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="5"/>
@@ -1889,7 +2311,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="5"/>
@@ -1930,7 +2352,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="5"/>
@@ -1971,7 +2393,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" si="5"/>
@@ -2012,7 +2434,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="5"/>
@@ -2053,7 +2475,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="5"/>
@@ -2094,7 +2516,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="5"/>
@@ -2132,30 +2554,43 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B40" s="4" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="C40" s="4">
-        <f>AVERAGE(C3:C38)</f>
-        <v>61.25</v>
+        <f>INT(SUM([1]Лист1!K3:K38))</f>
+        <v>156131</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B41" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C41" s="4">
-        <f>MAX(H3:H38)</f>
+        <f>AVERAGE([1]Лист1!C3:C38)</f>
+        <v>61.25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B42" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" s="4">
+        <f>MAX([1]Лист1!H3:H38)</f>
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B42" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C42" s="4">
-        <f>MAX(E3:E38)</f>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B43" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" s="4">
+        <f>MAX([1]Лист1!K3:K38)</f>
         <v>5082.0000000000009</v>
       </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
     </row>
   </sheetData>
   <dataConsolidate/>

--- a/LR3/table_1_66.xlsx
+++ b/LR3/table_1_66.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17406134-DA20-4DAC-9E87-34510A2001ED}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{389A5449-854D-4CB3-99F7-A0D23EA00985}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EAF2AFD9-6AD1-4813-954B-D105A5CF3691}"/>
   </bookViews>
@@ -252,7 +252,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -280,6 +280,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal 2" xfId="1" xr:uid="{AC8B6A2B-AB7E-413B-9E68-50EEA36AA3CD}"/>
@@ -314,7 +319,7 @@
             <v>0</v>
           </cell>
           <cell r="K3">
-            <v>5082.0000000000009</v>
+            <v>3003.0000000000005</v>
           </cell>
         </row>
         <row r="4">
@@ -325,7 +330,7 @@
             <v>0</v>
           </cell>
           <cell r="K4">
-            <v>5045.7000000000007</v>
+            <v>2981.55</v>
           </cell>
         </row>
         <row r="5">
@@ -336,7 +341,7 @@
             <v>0</v>
           </cell>
           <cell r="K5">
-            <v>5009.4000000000005</v>
+            <v>2960.1000000000004</v>
           </cell>
         </row>
         <row r="6">
@@ -347,7 +352,7 @@
             <v>0</v>
           </cell>
           <cell r="K6">
-            <v>4973.1000000000004</v>
+            <v>2938.6500000000005</v>
           </cell>
         </row>
         <row r="7">
@@ -358,7 +363,7 @@
             <v>0</v>
           </cell>
           <cell r="K7">
-            <v>4936.8</v>
+            <v>2917.2000000000003</v>
           </cell>
         </row>
         <row r="8">
@@ -369,7 +374,7 @@
             <v>0</v>
           </cell>
           <cell r="K8">
-            <v>4900.5000000000009</v>
+            <v>2895.7500000000005</v>
           </cell>
         </row>
         <row r="9">
@@ -380,7 +385,7 @@
             <v>0</v>
           </cell>
           <cell r="K9">
-            <v>4864.2000000000007</v>
+            <v>2874.3</v>
           </cell>
         </row>
         <row r="10">
@@ -391,7 +396,7 @@
             <v>0</v>
           </cell>
           <cell r="K10">
-            <v>4827.9000000000005</v>
+            <v>2852.8500000000004</v>
           </cell>
         </row>
         <row r="11">
@@ -402,7 +407,7 @@
             <v>0</v>
           </cell>
           <cell r="K11">
-            <v>4791.6000000000004</v>
+            <v>2831.4000000000005</v>
           </cell>
         </row>
         <row r="12">
@@ -413,7 +418,7 @@
             <v>1</v>
           </cell>
           <cell r="K12">
-            <v>4765.3</v>
+            <v>2819.9500000000003</v>
           </cell>
         </row>
         <row r="13">
@@ -424,7 +429,7 @@
             <v>2</v>
           </cell>
           <cell r="K13">
-            <v>4739.0000000000009</v>
+            <v>2808.5000000000005</v>
           </cell>
         </row>
         <row r="14">
@@ -435,7 +440,7 @@
             <v>3</v>
           </cell>
           <cell r="K14">
-            <v>4712.7000000000007</v>
+            <v>2797.05</v>
           </cell>
         </row>
         <row r="15">
@@ -446,7 +451,7 @@
             <v>4</v>
           </cell>
           <cell r="K15">
-            <v>4686.4000000000005</v>
+            <v>2785.6000000000004</v>
           </cell>
         </row>
         <row r="16">
@@ -457,7 +462,7 @@
             <v>5</v>
           </cell>
           <cell r="K16">
-            <v>4660.1000000000004</v>
+            <v>2774.1500000000005</v>
           </cell>
         </row>
         <row r="17">
@@ -468,7 +473,7 @@
             <v>6</v>
           </cell>
           <cell r="K17">
-            <v>4633.8</v>
+            <v>2762.7000000000003</v>
           </cell>
         </row>
         <row r="18">
@@ -479,7 +484,7 @@
             <v>7</v>
           </cell>
           <cell r="K18">
-            <v>4607.5000000000009</v>
+            <v>2751.2500000000005</v>
           </cell>
         </row>
         <row r="19">
@@ -490,7 +495,7 @@
             <v>8</v>
           </cell>
           <cell r="K19">
-            <v>4581.2000000000007</v>
+            <v>2739.8</v>
           </cell>
         </row>
         <row r="20">
@@ -501,7 +506,7 @@
             <v>9</v>
           </cell>
           <cell r="K20">
-            <v>4554.9000000000005</v>
+            <v>2728.3500000000004</v>
           </cell>
         </row>
         <row r="21">
@@ -512,7 +517,7 @@
             <v>10</v>
           </cell>
           <cell r="K21">
-            <v>4528.6000000000004</v>
+            <v>2716.9000000000005</v>
           </cell>
         </row>
         <row r="22">
@@ -523,7 +528,7 @@
             <v>11</v>
           </cell>
           <cell r="K22">
-            <v>4502.3</v>
+            <v>2705.4500000000003</v>
           </cell>
         </row>
         <row r="23">
@@ -534,7 +539,7 @@
             <v>12</v>
           </cell>
           <cell r="K23">
-            <v>4476.0000000000009</v>
+            <v>2694.0000000000005</v>
           </cell>
         </row>
         <row r="24">
@@ -545,7 +550,7 @@
             <v>13</v>
           </cell>
           <cell r="K24">
-            <v>4449.7000000000007</v>
+            <v>2682.55</v>
           </cell>
         </row>
         <row r="25">
@@ -556,7 +561,7 @@
             <v>14</v>
           </cell>
           <cell r="K25">
-            <v>4423.4000000000005</v>
+            <v>2671.1000000000004</v>
           </cell>
         </row>
         <row r="26">
@@ -567,7 +572,7 @@
             <v>15</v>
           </cell>
           <cell r="K26">
-            <v>4397.1000000000004</v>
+            <v>2659.6500000000005</v>
           </cell>
         </row>
         <row r="27">
@@ -578,7 +583,7 @@
             <v>16</v>
           </cell>
           <cell r="K27">
-            <v>4370.8</v>
+            <v>2648.2000000000003</v>
           </cell>
         </row>
         <row r="28">
@@ -589,7 +594,7 @@
             <v>17</v>
           </cell>
           <cell r="K28">
-            <v>4344.5000000000009</v>
+            <v>2636.7500000000005</v>
           </cell>
         </row>
         <row r="29">
@@ -600,7 +605,7 @@
             <v>18</v>
           </cell>
           <cell r="K29">
-            <v>4318.2000000000007</v>
+            <v>2625.3</v>
           </cell>
         </row>
         <row r="30">
@@ -611,7 +616,7 @@
             <v>19</v>
           </cell>
           <cell r="K30">
-            <v>4291.9000000000005</v>
+            <v>2613.8500000000004</v>
           </cell>
         </row>
         <row r="31">
@@ -622,7 +627,7 @@
             <v>20</v>
           </cell>
           <cell r="K31">
-            <v>4265.6000000000004</v>
+            <v>2602.4000000000005</v>
           </cell>
         </row>
         <row r="32">
@@ -633,7 +638,7 @@
             <v>21</v>
           </cell>
           <cell r="K32">
-            <v>4239.3000000000011</v>
+            <v>2590.9500000000003</v>
           </cell>
         </row>
         <row r="33">
@@ -644,7 +649,7 @@
             <v>22</v>
           </cell>
           <cell r="K33">
-            <v>4213</v>
+            <v>2579.5000000000005</v>
           </cell>
         </row>
         <row r="34">
@@ -655,7 +660,7 @@
             <v>23</v>
           </cell>
           <cell r="K34">
-            <v>4186.7000000000007</v>
+            <v>2568.0500000000002</v>
           </cell>
         </row>
         <row r="35">
@@ -666,7 +671,7 @@
             <v>24</v>
           </cell>
           <cell r="K35">
-            <v>2200.2000000000003</v>
+            <v>1398.3000000000002</v>
           </cell>
         </row>
         <row r="36">
@@ -677,7 +682,7 @@
             <v>25</v>
           </cell>
           <cell r="K36">
-            <v>2192.0500000000002</v>
+            <v>1397.575</v>
           </cell>
         </row>
         <row r="37">
@@ -688,7 +693,7 @@
             <v>26</v>
           </cell>
           <cell r="K37">
-            <v>2183.9000000000005</v>
+            <v>1396.8500000000001</v>
           </cell>
         </row>
         <row r="38">
@@ -699,7 +704,7 @@
             <v>27</v>
           </cell>
           <cell r="K38">
-            <v>2175.75</v>
+            <v>1396.1250000000002</v>
           </cell>
         </row>
       </sheetData>
@@ -1007,8 +1012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C5788C5-B1B9-447A-8C7B-1CAD0911E487}">
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1023,7 +1028,7 @@
     <col min="8" max="8" width="15.125" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.25" style="12" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" style="2" customWidth="1"/>
     <col min="13" max="16384" width="9" style="2"/>
   </cols>
@@ -1041,6 +1046,7 @@
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
+      <c r="K1" s="11"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -1073,7 +1079,7 @@
       <c r="J2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="11" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1112,7 +1118,7 @@
         <f>I3*H3</f>
         <v>0</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="13">
         <f>E3+J3</f>
         <v>5082.0000000000009</v>
       </c>
@@ -1153,7 +1159,7 @@
         <f t="shared" ref="J4:J38" si="3">I4*H4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="13">
         <f t="shared" ref="K4:K38" si="4">E4+J4</f>
         <v>5045.7000000000007</v>
       </c>
@@ -1194,7 +1200,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="13">
         <f t="shared" si="4"/>
         <v>5009.4000000000005</v>
       </c>
@@ -1235,7 +1241,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="13">
         <f t="shared" si="4"/>
         <v>4973.1000000000004</v>
       </c>
@@ -1276,7 +1282,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="13">
         <f t="shared" si="4"/>
         <v>4936.8</v>
       </c>
@@ -1317,7 +1323,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="13">
         <f t="shared" si="4"/>
         <v>4900.5000000000009</v>
       </c>
@@ -1358,7 +1364,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="13">
         <f t="shared" si="4"/>
         <v>2432.1000000000004</v>
       </c>
@@ -1399,7 +1405,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="13">
         <f t="shared" si="4"/>
         <v>2413.9500000000003</v>
       </c>
@@ -1440,7 +1446,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11" s="13">
         <f t="shared" si="4"/>
         <v>2395.8000000000002</v>
       </c>
@@ -1481,7 +1487,7 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K12" s="13">
         <f t="shared" si="4"/>
         <v>2387.65</v>
       </c>
@@ -1522,7 +1528,7 @@
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K13" s="13">
         <f t="shared" si="4"/>
         <v>2379.5000000000005</v>
       </c>
@@ -1563,7 +1569,7 @@
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K14" s="13">
         <f t="shared" si="4"/>
         <v>2371.3500000000004</v>
       </c>
@@ -1604,7 +1610,7 @@
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="K15" s="2">
+      <c r="K15" s="13">
         <f t="shared" si="4"/>
         <v>2363.2000000000003</v>
       </c>
@@ -1645,7 +1651,7 @@
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K16" s="13">
         <f t="shared" si="4"/>
         <v>2355.0500000000002</v>
       </c>
@@ -1686,7 +1692,7 @@
         <f t="shared" si="3"/>
         <v>60</v>
       </c>
-      <c r="K17" s="2">
+      <c r="K17" s="13">
         <f t="shared" si="4"/>
         <v>2346.9</v>
       </c>
@@ -1727,7 +1733,7 @@
         <f t="shared" si="3"/>
         <v>70</v>
       </c>
-      <c r="K18" s="2">
+      <c r="K18" s="13">
         <f t="shared" si="4"/>
         <v>2338.7500000000005</v>
       </c>
@@ -1768,7 +1774,7 @@
         <f t="shared" si="3"/>
         <v>80</v>
       </c>
-      <c r="K19" s="2">
+      <c r="K19" s="13">
         <f t="shared" si="4"/>
         <v>2330.6000000000004</v>
       </c>
@@ -1809,7 +1815,7 @@
         <f t="shared" si="3"/>
         <v>90</v>
       </c>
-      <c r="K20" s="2">
+      <c r="K20" s="13">
         <f t="shared" si="4"/>
         <v>2322.4500000000003</v>
       </c>
@@ -1850,7 +1856,7 @@
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="K21" s="2">
+      <c r="K21" s="13">
         <f t="shared" si="4"/>
         <v>2314.3000000000002</v>
       </c>
@@ -1891,7 +1897,7 @@
         <f t="shared" si="3"/>
         <v>110</v>
       </c>
-      <c r="K22" s="2">
+      <c r="K22" s="13">
         <f t="shared" si="4"/>
         <v>2306.15</v>
       </c>
@@ -1932,7 +1938,7 @@
         <f t="shared" si="3"/>
         <v>120</v>
       </c>
-      <c r="K23" s="2">
+      <c r="K23" s="13">
         <f t="shared" si="4"/>
         <v>2298.0000000000005</v>
       </c>
@@ -1973,7 +1979,7 @@
         <f t="shared" si="3"/>
         <v>130</v>
       </c>
-      <c r="K24" s="2">
+      <c r="K24" s="13">
         <f t="shared" si="4"/>
         <v>2289.8500000000004</v>
       </c>
@@ -2014,7 +2020,7 @@
         <f t="shared" si="3"/>
         <v>140</v>
       </c>
-      <c r="K25" s="2">
+      <c r="K25" s="13">
         <f t="shared" si="4"/>
         <v>2281.7000000000003</v>
       </c>
@@ -2055,7 +2061,7 @@
         <f t="shared" si="3"/>
         <v>150</v>
       </c>
-      <c r="K26" s="2">
+      <c r="K26" s="13">
         <f t="shared" si="4"/>
         <v>2273.5500000000002</v>
       </c>
@@ -2096,7 +2102,7 @@
         <f t="shared" si="3"/>
         <v>160</v>
       </c>
-      <c r="K27" s="2">
+      <c r="K27" s="13">
         <f t="shared" si="4"/>
         <v>2265.4</v>
       </c>
@@ -2137,7 +2143,7 @@
         <f t="shared" si="3"/>
         <v>170</v>
       </c>
-      <c r="K28" s="2">
+      <c r="K28" s="13">
         <f t="shared" si="4"/>
         <v>2257.2500000000005</v>
       </c>
@@ -2178,7 +2184,7 @@
         <f t="shared" si="3"/>
         <v>180</v>
       </c>
-      <c r="K29" s="2">
+      <c r="K29" s="13">
         <f t="shared" si="4"/>
         <v>2249.1000000000004</v>
       </c>
@@ -2219,7 +2225,7 @@
         <f t="shared" si="3"/>
         <v>190</v>
       </c>
-      <c r="K30" s="2">
+      <c r="K30" s="13">
         <f t="shared" si="4"/>
         <v>2240.9500000000003</v>
       </c>
@@ -2260,7 +2266,7 @@
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="K31" s="2">
+      <c r="K31" s="13">
         <f t="shared" si="4"/>
         <v>2232.8000000000002</v>
       </c>
@@ -2301,7 +2307,7 @@
         <f t="shared" si="3"/>
         <v>210</v>
       </c>
-      <c r="K32" s="2">
+      <c r="K32" s="13">
         <f t="shared" si="4"/>
         <v>2224.6500000000005</v>
       </c>
@@ -2342,7 +2348,7 @@
         <f t="shared" si="3"/>
         <v>220</v>
       </c>
-      <c r="K33" s="2">
+      <c r="K33" s="13">
         <f t="shared" si="4"/>
         <v>2216.5</v>
       </c>
@@ -2383,7 +2389,7 @@
         <f t="shared" si="3"/>
         <v>230</v>
       </c>
-      <c r="K34" s="2">
+      <c r="K34" s="13">
         <f t="shared" si="4"/>
         <v>2208.3500000000004</v>
       </c>
@@ -2424,7 +2430,7 @@
         <f t="shared" si="3"/>
         <v>240</v>
       </c>
-      <c r="K35" s="2">
+      <c r="K35" s="13">
         <f t="shared" si="4"/>
         <v>2200.2000000000003</v>
       </c>
@@ -2465,7 +2471,7 @@
         <f t="shared" si="3"/>
         <v>250</v>
       </c>
-      <c r="K36" s="2">
+      <c r="K36" s="13">
         <f t="shared" si="4"/>
         <v>2192.0500000000002</v>
       </c>
@@ -2506,7 +2512,7 @@
         <f t="shared" si="3"/>
         <v>260</v>
       </c>
-      <c r="K37" s="2">
+      <c r="K37" s="13">
         <f t="shared" si="4"/>
         <v>2183.9000000000005</v>
       </c>
@@ -2547,7 +2553,7 @@
         <f t="shared" si="3"/>
         <v>270</v>
       </c>
-      <c r="K38" s="2">
+      <c r="K38" s="13">
         <f t="shared" si="4"/>
         <v>2175.75</v>
       </c>
@@ -2558,7 +2564,7 @@
       </c>
       <c r="C40" s="4">
         <f>INT(SUM([1]Лист1!K3:K38))</f>
-        <v>156131</v>
+        <v>93805</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -2585,7 +2591,7 @@
       </c>
       <c r="C43" s="4">
         <f>MAX([1]Лист1!K3:K38)</f>
-        <v>5082.0000000000009</v>
+        <v>3003.0000000000005</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">

--- a/LR3/table_1_66.xlsx
+++ b/LR3/table_1_66.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{70F69C6F-3BCC-4420-91AC-8CC5C638559E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44831DD0-E04D-47EE-84EE-0C6A893F60CA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -179,7 +179,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,20 +189,19 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -229,7 +228,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -241,12 +240,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -473,7 +466,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -495,6 +488,16 @@
       <c r="A1" s="2">
         <v>66</v>
       </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -541,8 +544,8 @@
       <c r="C3" s="2">
         <v>70</v>
       </c>
-      <c r="D3" s="5">
-        <f t="shared" ref="D3:D8" si="0">A$1*1.1</f>
+      <c r="D3" s="2">
+        <f t="shared" ref="D3:D10" si="0">A$1*1.1</f>
         <v>72.600000000000009</v>
       </c>
       <c r="E3" s="2">
@@ -559,7 +562,7 @@
         <f t="shared" ref="H3:H38" si="2">IF(F3&gt;=G3, 0, G3-F3)</f>
         <v>0</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="2">
         <v>10</v>
       </c>
       <c r="J3" s="2">
@@ -583,7 +586,7 @@
         <f t="shared" ref="C4:C38" si="6">C3-0.5</f>
         <v>69.5</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="2">
         <f t="shared" si="0"/>
         <v>72.600000000000009</v>
       </c>
@@ -602,7 +605,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="2">
         <f t="shared" ref="I4:I38" si="8">I3</f>
         <v>10</v>
       </c>
@@ -627,7 +630,7 @@
         <f t="shared" si="6"/>
         <v>69</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="2">
         <f t="shared" si="0"/>
         <v>72.600000000000009</v>
       </c>
@@ -646,7 +649,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="2">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
@@ -671,7 +674,7 @@
         <f t="shared" si="6"/>
         <v>68.5</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="2">
         <f t="shared" si="0"/>
         <v>72.600000000000009</v>
       </c>
@@ -690,7 +693,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="2">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
@@ -715,7 +718,7 @@
         <f t="shared" si="6"/>
         <v>68</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="2">
         <f t="shared" si="0"/>
         <v>72.600000000000009</v>
       </c>
@@ -734,7 +737,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="2">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
@@ -759,7 +762,7 @@
         <f t="shared" si="6"/>
         <v>67.5</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="2">
         <f t="shared" si="0"/>
         <v>72.600000000000009</v>
       </c>
@@ -778,7 +781,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="2">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
@@ -803,13 +806,13 @@
         <f t="shared" si="6"/>
         <v>67</v>
       </c>
-      <c r="D9" s="6">
-        <f t="shared" ref="D9:D38" si="9">A$1*1.1/2</f>
-        <v>36.300000000000004</v>
+      <c r="D9" s="2">
+        <f t="shared" si="0"/>
+        <v>72.600000000000009</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" si="1"/>
-        <v>2432.1000000000004</v>
+        <v>4864.2000000000007</v>
       </c>
       <c r="F9" s="3">
         <f t="shared" si="7"/>
@@ -822,7 +825,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="2">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
@@ -832,7 +835,7 @@
       </c>
       <c r="K9" s="2">
         <f t="shared" si="4"/>
-        <v>2432.1000000000004</v>
+        <v>4864.2000000000007</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -847,13 +850,13 @@
         <f t="shared" si="6"/>
         <v>66.5</v>
       </c>
-      <c r="D10" s="6">
-        <f t="shared" si="9"/>
-        <v>36.300000000000004</v>
+      <c r="D10" s="2">
+        <f t="shared" si="0"/>
+        <v>72.600000000000009</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="1"/>
-        <v>2413.9500000000003</v>
+        <v>4827.9000000000005</v>
       </c>
       <c r="F10" s="3">
         <f t="shared" si="7"/>
@@ -866,7 +869,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="2">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
@@ -876,7 +879,7 @@
       </c>
       <c r="K10" s="2">
         <f t="shared" si="4"/>
-        <v>2413.9500000000003</v>
+        <v>4827.9000000000005</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -891,8 +894,8 @@
         <f t="shared" si="6"/>
         <v>66</v>
       </c>
-      <c r="D11" s="6">
-        <f t="shared" si="9"/>
+      <c r="D11" s="2">
+        <f t="shared" ref="D9:D38" si="9">A$1*1.1/2</f>
         <v>36.300000000000004</v>
       </c>
       <c r="E11" s="2">
@@ -910,7 +913,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="2">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
@@ -935,7 +938,7 @@
         <f t="shared" si="6"/>
         <v>65.5</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="2">
         <f t="shared" si="9"/>
         <v>36.300000000000004</v>
       </c>
@@ -954,7 +957,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="2">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
@@ -979,7 +982,7 @@
         <f t="shared" si="6"/>
         <v>65</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="2">
         <f t="shared" si="9"/>
         <v>36.300000000000004</v>
       </c>
@@ -998,7 +1001,7 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="2">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
@@ -1023,7 +1026,7 @@
         <f t="shared" si="6"/>
         <v>64.5</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="2">
         <f t="shared" si="9"/>
         <v>36.300000000000004</v>
       </c>
@@ -1042,7 +1045,7 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="2">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
@@ -1067,7 +1070,7 @@
         <f t="shared" si="6"/>
         <v>64</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="2">
         <f t="shared" si="9"/>
         <v>36.300000000000004</v>
       </c>
@@ -1086,7 +1089,7 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="2">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
@@ -1111,7 +1114,7 @@
         <f t="shared" si="6"/>
         <v>63.5</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="2">
         <f t="shared" si="9"/>
         <v>36.300000000000004</v>
       </c>
@@ -1130,7 +1133,7 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="2">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
@@ -1155,7 +1158,7 @@
         <f t="shared" si="6"/>
         <v>63</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="2">
         <f t="shared" si="9"/>
         <v>36.300000000000004</v>
       </c>
@@ -1174,7 +1177,7 @@
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="2">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
@@ -1199,7 +1202,7 @@
         <f t="shared" si="6"/>
         <v>62.5</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="2">
         <f t="shared" si="9"/>
         <v>36.300000000000004</v>
       </c>
@@ -1218,7 +1221,7 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="2">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
@@ -1243,7 +1246,7 @@
         <f t="shared" si="6"/>
         <v>62</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="2">
         <f t="shared" si="9"/>
         <v>36.300000000000004</v>
       </c>
@@ -1262,7 +1265,7 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19" s="2">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
@@ -1287,7 +1290,7 @@
         <f t="shared" si="6"/>
         <v>61.5</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="2">
         <f t="shared" si="9"/>
         <v>36.300000000000004</v>
       </c>
@@ -1306,7 +1309,7 @@
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I20" s="2">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
@@ -1331,7 +1334,7 @@
         <f t="shared" si="6"/>
         <v>61</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="2">
         <f t="shared" si="9"/>
         <v>36.300000000000004</v>
       </c>
@@ -1350,7 +1353,7 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I21" s="2">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
@@ -1375,7 +1378,7 @@
         <f t="shared" si="6"/>
         <v>60.5</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="2">
         <f t="shared" si="9"/>
         <v>36.300000000000004</v>
       </c>
@@ -1394,7 +1397,7 @@
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I22" s="2">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
@@ -1419,7 +1422,7 @@
         <f t="shared" si="6"/>
         <v>60</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="2">
         <f t="shared" si="9"/>
         <v>36.300000000000004</v>
       </c>
@@ -1438,7 +1441,7 @@
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="I23" s="4">
+      <c r="I23" s="2">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
@@ -1463,7 +1466,7 @@
         <f t="shared" si="6"/>
         <v>59.5</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="2">
         <f t="shared" si="9"/>
         <v>36.300000000000004</v>
       </c>
@@ -1482,7 +1485,7 @@
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="I24" s="4">
+      <c r="I24" s="2">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
@@ -1507,7 +1510,7 @@
         <f t="shared" si="6"/>
         <v>59</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="2">
         <f t="shared" si="9"/>
         <v>36.300000000000004</v>
       </c>
@@ -1526,7 +1529,7 @@
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="I25" s="4">
+      <c r="I25" s="2">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
@@ -1551,7 +1554,7 @@
         <f t="shared" si="6"/>
         <v>58.5</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="2">
         <f t="shared" si="9"/>
         <v>36.300000000000004</v>
       </c>
@@ -1570,7 +1573,7 @@
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="I26" s="4">
+      <c r="I26" s="2">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
@@ -1595,7 +1598,7 @@
         <f t="shared" si="6"/>
         <v>58</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="2">
         <f t="shared" si="9"/>
         <v>36.300000000000004</v>
       </c>
@@ -1614,7 +1617,7 @@
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="I27" s="4">
+      <c r="I27" s="2">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
@@ -1639,7 +1642,7 @@
         <f t="shared" si="6"/>
         <v>57.5</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="2">
         <f t="shared" si="9"/>
         <v>36.300000000000004</v>
       </c>
@@ -1658,7 +1661,7 @@
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="I28" s="4">
+      <c r="I28" s="2">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
@@ -1683,7 +1686,7 @@
         <f t="shared" si="6"/>
         <v>57</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="2">
         <f t="shared" si="9"/>
         <v>36.300000000000004</v>
       </c>
@@ -1702,7 +1705,7 @@
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="I29" s="4">
+      <c r="I29" s="2">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
@@ -1727,7 +1730,7 @@
         <f t="shared" si="6"/>
         <v>56.5</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="2">
         <f t="shared" si="9"/>
         <v>36.300000000000004</v>
       </c>
@@ -1746,7 +1749,7 @@
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="I30" s="4">
+      <c r="I30" s="2">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
@@ -1771,7 +1774,7 @@
         <f t="shared" si="6"/>
         <v>56</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="2">
         <f t="shared" si="9"/>
         <v>36.300000000000004</v>
       </c>
@@ -1790,7 +1793,7 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="I31" s="4">
+      <c r="I31" s="2">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
@@ -1815,7 +1818,7 @@
         <f t="shared" si="6"/>
         <v>55.5</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D32" s="2">
         <f t="shared" si="9"/>
         <v>36.300000000000004</v>
       </c>
@@ -1834,7 +1837,7 @@
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="I32" s="4">
+      <c r="I32" s="2">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
@@ -1859,7 +1862,7 @@
         <f t="shared" si="6"/>
         <v>55</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D33" s="2">
         <f t="shared" si="9"/>
         <v>36.300000000000004</v>
       </c>
@@ -1878,7 +1881,7 @@
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="I33" s="4">
+      <c r="I33" s="2">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
@@ -1903,7 +1906,7 @@
         <f t="shared" si="6"/>
         <v>54.5</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34" s="2">
         <f t="shared" si="9"/>
         <v>36.300000000000004</v>
       </c>
@@ -1922,7 +1925,7 @@
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="I34" s="4">
+      <c r="I34" s="2">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
@@ -1947,7 +1950,7 @@
         <f t="shared" si="6"/>
         <v>54</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D35" s="2">
         <f t="shared" si="9"/>
         <v>36.300000000000004</v>
       </c>
@@ -1966,7 +1969,7 @@
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="I35" s="4">
+      <c r="I35" s="2">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
@@ -1991,7 +1994,7 @@
         <f t="shared" si="6"/>
         <v>53.5</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D36" s="2">
         <f t="shared" si="9"/>
         <v>36.300000000000004</v>
       </c>
@@ -2010,7 +2013,7 @@
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="I36" s="4">
+      <c r="I36" s="2">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
@@ -2035,7 +2038,7 @@
         <f t="shared" si="6"/>
         <v>53</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D37" s="2">
         <f t="shared" si="9"/>
         <v>36.300000000000004</v>
       </c>
@@ -2054,7 +2057,7 @@
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="I37" s="4">
+      <c r="I37" s="2">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
@@ -2079,7 +2082,7 @@
         <f t="shared" si="6"/>
         <v>52.5</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D38" s="2">
         <f t="shared" si="9"/>
         <v>36.300000000000004</v>
       </c>
@@ -2098,7 +2101,7 @@
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="I38" s="4">
+      <c r="I38" s="2">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
@@ -2120,14 +2123,14 @@
       </c>
       <c r="C40" s="2">
         <f>INT(SUM(K3:K38))</f>
-        <v>98795</v>
+        <v>103641</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="2">
         <f>AVERAGE(C3:C38)</f>
         <v>61.25</v>
       </c>
@@ -2136,7 +2139,7 @@
       <c r="B42" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42" s="2">
         <f>MAX(H3:H38)</f>
         <v>27</v>
       </c>
@@ -2145,7 +2148,7 @@
       <c r="B43" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43" s="2">
         <f>MAX(J3, J38)</f>
         <v>270</v>
       </c>

--- a/LR3/table_1_66.xlsx
+++ b/LR3/table_1_66.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F192BD-5CF0-47CE-9C12-DC1CB48BD594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F4B47CF-2E2E-4337-A191-3EEB2C1B5A20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -594,8 +594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2249,7 +2249,7 @@
         <v>12</v>
       </c>
       <c r="C40" s="2">
-        <f>ROUND(SUM(K3:K38), 0)</f>
+        <f>_xlfn.FLOOR.MATH(SUM(K3:K38))</f>
         <v>156131</v>
       </c>
     </row>

--- a/LR3/table_1_66.xlsx
+++ b/LR3/table_1_66.xlsx
@@ -150,9 +150,6 @@
     <t>Сумма, руб./кв.м.</t>
   </si>
   <si>
-    <t>Пени за 1 день</t>
-  </si>
-  <si>
     <t>Штраф, руб.</t>
   </si>
   <si>
@@ -169,6 +166,9 @@
   </si>
   <si>
     <t>Макс. сумма к оплате, руб.</t>
+  </si>
+  <si>
+    <t>Пени за 1 день, руб.</t>
   </si>
 </sst>
 </file>
@@ -177,7 +177,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -222,7 +222,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -528,8 +528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -578,13 +578,13 @@
         <v>42</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -629,12 +629,14 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
+        <f>A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="1">
+        <f>C3-0.5</f>
         <v>69.5</v>
       </c>
       <c r="D4" s="1">
@@ -669,12 +671,14 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
+        <f t="shared" ref="A5:A38" si="5">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="1">
+        <f t="shared" ref="C5:C38" si="6">C4-0.5</f>
         <v>69</v>
       </c>
       <c r="D5" s="1">
@@ -709,12 +713,14 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="1">
+        <f t="shared" si="6"/>
         <v>68.5</v>
       </c>
       <c r="D6" s="1">
@@ -749,12 +755,14 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="1">
+        <f t="shared" si="6"/>
         <v>68</v>
       </c>
       <c r="D7" s="1">
@@ -789,12 +797,14 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="1">
+        <f t="shared" si="6"/>
         <v>67.5</v>
       </c>
       <c r="D8" s="1">
@@ -829,12 +839,14 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="1">
+        <f t="shared" si="6"/>
         <v>67</v>
       </c>
       <c r="D9" s="1">
@@ -869,12 +881,14 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="1">
+        <f t="shared" si="6"/>
         <v>66.5</v>
       </c>
       <c r="D10" s="1">
@@ -909,12 +923,14 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="1">
+        <f t="shared" si="6"/>
         <v>66</v>
       </c>
       <c r="D11" s="1">
@@ -949,12 +965,14 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="1">
+        <f t="shared" si="6"/>
         <v>65.5</v>
       </c>
       <c r="D12" s="1">
@@ -989,12 +1007,14 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="1">
+        <f t="shared" si="6"/>
         <v>65</v>
       </c>
       <c r="D13" s="1">
@@ -1029,12 +1049,14 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="1">
+        <f t="shared" si="6"/>
         <v>64.5</v>
       </c>
       <c r="D14" s="1">
@@ -1069,12 +1091,14 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="1">
+        <f t="shared" si="6"/>
         <v>64</v>
       </c>
       <c r="D15" s="1">
@@ -1109,12 +1133,14 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="1">
+        <f t="shared" si="6"/>
         <v>63.5</v>
       </c>
       <c r="D16" s="1">
@@ -1149,12 +1175,14 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="1">
+        <f t="shared" si="6"/>
         <v>63</v>
       </c>
       <c r="D17" s="1">
@@ -1189,12 +1217,14 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="1">
+        <f t="shared" si="6"/>
         <v>62.5</v>
       </c>
       <c r="D18" s="1">
@@ -1229,12 +1259,14 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="1">
+        <f t="shared" si="6"/>
         <v>62</v>
       </c>
       <c r="D19" s="1">
@@ -1269,12 +1301,14 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="1">
+        <f t="shared" si="6"/>
         <v>61.5</v>
       </c>
       <c r="D20" s="1">
@@ -1309,12 +1343,14 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="1">
+        <f t="shared" si="6"/>
         <v>61</v>
       </c>
       <c r="D21" s="1">
@@ -1349,12 +1385,14 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C22" s="1">
+        <f t="shared" si="6"/>
         <v>60.5</v>
       </c>
       <c r="D22" s="1">
@@ -1389,12 +1427,14 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C23" s="1">
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="D23" s="1">
@@ -1429,12 +1469,14 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C24" s="1">
+        <f t="shared" si="6"/>
         <v>59.5</v>
       </c>
       <c r="D24" s="1">
@@ -1469,12 +1511,14 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C25" s="1">
+        <f t="shared" si="6"/>
         <v>59</v>
       </c>
       <c r="D25" s="1">
@@ -1509,12 +1553,14 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C26" s="1">
+        <f t="shared" si="6"/>
         <v>58.5</v>
       </c>
       <c r="D26" s="1">
@@ -1549,12 +1595,14 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C27" s="1">
+        <f t="shared" si="6"/>
         <v>58</v>
       </c>
       <c r="D27" s="1">
@@ -1589,12 +1637,14 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C28" s="1">
+        <f t="shared" si="6"/>
         <v>57.5</v>
       </c>
       <c r="D28" s="1">
@@ -1629,12 +1679,14 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
+        <f t="shared" si="5"/>
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C29" s="1">
+        <f t="shared" si="6"/>
         <v>57</v>
       </c>
       <c r="D29" s="1">
@@ -1669,12 +1721,14 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
+        <f t="shared" si="5"/>
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C30" s="1">
+        <f t="shared" si="6"/>
         <v>56.5</v>
       </c>
       <c r="D30" s="1">
@@ -1709,12 +1763,14 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
+        <f t="shared" si="5"/>
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C31" s="1">
+        <f t="shared" si="6"/>
         <v>56</v>
       </c>
       <c r="D31" s="1">
@@ -1749,12 +1805,14 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C32" s="1">
+        <f t="shared" si="6"/>
         <v>55.5</v>
       </c>
       <c r="D32" s="1">
@@ -1789,12 +1847,14 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C33" s="1">
+        <f t="shared" si="6"/>
         <v>55</v>
       </c>
       <c r="D33" s="1">
@@ -1829,12 +1889,14 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
+        <f t="shared" si="5"/>
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C34" s="1">
+        <f t="shared" si="6"/>
         <v>54.5</v>
       </c>
       <c r="D34" s="1">
@@ -1869,12 +1931,14 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
+        <f t="shared" si="5"/>
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C35" s="1">
+        <f t="shared" si="6"/>
         <v>54</v>
       </c>
       <c r="D35" s="1">
@@ -1909,16 +1973,18 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
+        <f t="shared" si="5"/>
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C36" s="1">
+        <f t="shared" si="6"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" ref="D36:D38" si="5">$A$1*1.1/2</f>
+        <f t="shared" ref="D36:D38" si="7">$A$1*1.1/2</f>
         <v>36.300000000000004</v>
       </c>
       <c r="E36" s="1">
@@ -1949,16 +2015,18 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
+        <f t="shared" si="5"/>
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C37" s="1">
+        <f t="shared" si="6"/>
         <v>53</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>36.300000000000004</v>
       </c>
       <c r="E37" s="1">
@@ -1989,16 +2057,18 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
+        <f t="shared" si="5"/>
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C38" s="1">
+        <f t="shared" si="6"/>
         <v>52.5</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>36.300000000000004</v>
       </c>
       <c r="E38" s="1">
@@ -2029,7 +2099,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C40" s="3">
         <f>SUM(K3:K38)</f>
@@ -2038,7 +2108,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C41" s="4">
         <f>AVERAGE(C3:C38)</f>
@@ -2047,7 +2117,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
@@ -2056,7 +2126,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(J3:J38)</f>

--- a/LR3/table_1_66.xlsx
+++ b/LR3/table_1_66.xlsx
@@ -147,36 +147,35 @@
     <t>Просрочка, дней</t>
   </si>
   <si>
-    <t>Сумма, руб./кв.м.</t>
-  </si>
-  <si>
     <t>Штраф, руб.</t>
   </si>
   <si>
-    <t>Итого</t>
-  </si>
-  <si>
     <t>Общая сумма, руб.</t>
   </si>
   <si>
     <t>Средняя площадь, кв.м.</t>
   </si>
   <si>
-    <t>Макс. срок просрочки, дней</t>
-  </si>
-  <si>
-    <t>Макс. сумма к оплате, руб.</t>
-  </si>
-  <si>
     <t>Пени за 1 день, руб.</t>
+  </si>
+  <si>
+    <t>Сумма, руб.</t>
+  </si>
+  <si>
+    <t>Итого, руб.</t>
+  </si>
+  <si>
+    <t>Максимальный срок просрочки, дней</t>
+  </si>
+  <si>
+    <t>Максимальная сумма, руб.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
@@ -216,13 +215,13 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -528,8 +527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -542,9 +541,9 @@
     <col min="6" max="6" width="11.875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.625" style="1" customWidth="1"/>
     <col min="10" max="10" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -559,14 +558,14 @@
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>40</v>
@@ -578,13 +577,13 @@
         <v>42</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -2099,25 +2098,25 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C40" s="3">
+        <v>44</v>
+      </c>
+      <c r="C40" s="5">
         <f>SUM(K3:K38)</f>
         <v>156131.1</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C41" s="4">
+        <v>45</v>
+      </c>
+      <c r="C41" s="3">
         <f>AVERAGE(C3:C38)</f>
         <v>61.25</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
@@ -2126,7 +2125,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(J3:J38)</f>

--- a/LR3/table_1_66.xlsx
+++ b/LR3/table_1_66.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F4B47CF-2E2E-4337-A191-3EEB2C1B5A20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{150A96C0-C737-4744-B885-FB9A9FB6C440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67,9 +67,6 @@
     <t>Максимальный срок просрочки, дней</t>
   </si>
   <si>
-    <t>Максимальная сумма к оплате, руб.</t>
-  </si>
-  <si>
     <t>Общая сумма, руб.</t>
   </si>
   <si>
@@ -80,6 +77,9 @@
   </si>
   <si>
     <t>Пени за 1 день, руб.</t>
+  </si>
+  <si>
+    <t>Максимальная сумма, руб.</t>
   </si>
   <si>
     <t>Аллаяров </t>
@@ -191,21 +191,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="2"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -255,27 +247,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -594,1688 +595,1723 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="33.75" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.75" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.75" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.875" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.75" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.25" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.75" style="5"/>
+    <col min="1" max="1" width="11.375" style="10" customWidth="1"/>
+    <col min="2" max="2" width="33.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.75" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="6">
+      <c r="A1" s="9">
         <v>66</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-    </row>
-    <row r="2" spans="1:11" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+    </row>
+    <row r="2" spans="1:11" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="6" t="s">
+      <c r="J2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
         <v>1</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>70</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <f>$A$1*1.1</f>
         <v>72.600000000000009</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <f>C3*D3</f>
         <v>5082.0000000000009</v>
       </c>
-      <c r="F3" s="9">
-        <v>44813</v>
-      </c>
-      <c r="G3" s="9">
+      <c r="F3" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G3" s="3">
         <v>44805</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="2">
         <f>IF(G3&lt;=F3,0,G3-F3)</f>
         <v>0</v>
       </c>
-      <c r="I3" s="1">
-        <v>10</v>
-      </c>
-      <c r="J3" s="1">
-        <f>I3*H3</f>
+      <c r="I3" s="2">
+        <v>10</v>
+      </c>
+      <c r="J3" s="2">
+        <f>H3*I3</f>
         <v>0</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="2">
         <f>E3+J3</f>
         <v>5082.0000000000009</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="A4" s="12">
         <f>A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
         <f>C3-0.5</f>
         <v>69.5</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <f t="shared" ref="D4:D34" si="0">$A$1*1.1</f>
         <v>72.600000000000009</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2">
         <f t="shared" ref="E4:E38" si="1">C4*D4</f>
         <v>5045.7000000000007</v>
       </c>
-      <c r="F4" s="9">
-        <v>44813</v>
-      </c>
-      <c r="G4" s="9">
+      <c r="F4" s="3">
+        <f>$F$3</f>
+        <v>44813</v>
+      </c>
+      <c r="G4" s="3">
         <f>G3+1</f>
         <v>44806</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="2">
         <f t="shared" ref="H4:H38" si="2">IF(G4&lt;=F4,0,G4-F4)</f>
         <v>0</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="2">
         <f>$I$3</f>
         <v>10</v>
       </c>
-      <c r="J4" s="1">
-        <f t="shared" ref="J4:J38" si="3">I4*H4</f>
+      <c r="J4" s="2">
+        <f t="shared" ref="J4:J38" si="3">H4*I4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="2">
         <f t="shared" ref="K4:K38" si="4">E4+J4</f>
         <v>5045.7000000000007</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="A5" s="12">
         <f t="shared" ref="A5:A38" si="5">A4+1</f>
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="2">
         <f t="shared" ref="C5:C38" si="6">C4-0.5</f>
         <v>69</v>
       </c>
-      <c r="D5" s="1">
-        <f t="shared" si="0"/>
-        <v>72.600000000000009</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="D5" s="2">
+        <f t="shared" si="0"/>
+        <v>72.600000000000009</v>
+      </c>
+      <c r="E5" s="2">
         <f t="shared" si="1"/>
         <v>5009.4000000000005</v>
       </c>
-      <c r="F5" s="9">
-        <v>44813</v>
-      </c>
-      <c r="G5" s="9">
-        <f t="shared" ref="G5:G38" si="7">G4+1</f>
+      <c r="F5" s="3">
+        <f t="shared" ref="F5:F38" si="7">$F$3</f>
+        <v>44813</v>
+      </c>
+      <c r="G5" s="3">
+        <f t="shared" ref="G5:G38" si="8">G4+1</f>
         <v>44807</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I5" s="1">
-        <f t="shared" ref="I5:I38" si="8">$I$3</f>
-        <v>10</v>
-      </c>
-      <c r="J5" s="1">
+      <c r="I5" s="2">
+        <f t="shared" ref="I5:I38" si="9">$I$3</f>
+        <v>10</v>
+      </c>
+      <c r="J5" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="2">
         <f t="shared" si="4"/>
         <v>5009.4000000000005</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="A6" s="12">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2">
         <f t="shared" si="6"/>
         <v>68.5</v>
       </c>
-      <c r="D6" s="1">
-        <f t="shared" si="0"/>
-        <v>72.600000000000009</v>
-      </c>
-      <c r="E6" s="1">
+      <c r="D6" s="2">
+        <f t="shared" si="0"/>
+        <v>72.600000000000009</v>
+      </c>
+      <c r="E6" s="2">
         <f t="shared" si="1"/>
         <v>4973.1000000000004</v>
       </c>
-      <c r="F6" s="9">
-        <v>44813</v>
-      </c>
-      <c r="G6" s="9">
-        <f t="shared" si="7"/>
+      <c r="F6" s="3">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G6" s="3">
+        <f t="shared" si="8"/>
         <v>44808</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I6" s="1">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J6" s="1">
+      <c r="I6" s="2">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J6" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="2">
         <f t="shared" si="4"/>
         <v>4973.1000000000004</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="A7" s="12">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="2">
         <f t="shared" si="6"/>
         <v>68</v>
       </c>
-      <c r="D7" s="1">
-        <f t="shared" si="0"/>
-        <v>72.600000000000009</v>
-      </c>
-      <c r="E7" s="1">
+      <c r="D7" s="2">
+        <f t="shared" si="0"/>
+        <v>72.600000000000009</v>
+      </c>
+      <c r="E7" s="2">
         <f t="shared" si="1"/>
         <v>4936.8</v>
       </c>
-      <c r="F7" s="9">
-        <v>44813</v>
-      </c>
-      <c r="G7" s="9">
-        <f t="shared" si="7"/>
+      <c r="F7" s="3">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" si="8"/>
         <v>44809</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I7" s="1">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J7" s="1">
+      <c r="I7" s="2">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J7" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="2">
         <f t="shared" si="4"/>
         <v>4936.8</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="A8" s="12">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="2">
         <f t="shared" si="6"/>
         <v>67.5</v>
       </c>
-      <c r="D8" s="1">
-        <f t="shared" si="0"/>
-        <v>72.600000000000009</v>
-      </c>
-      <c r="E8" s="1">
+      <c r="D8" s="2">
+        <f t="shared" si="0"/>
+        <v>72.600000000000009</v>
+      </c>
+      <c r="E8" s="2">
         <f t="shared" si="1"/>
         <v>4900.5000000000009</v>
       </c>
-      <c r="F8" s="9">
-        <v>44813</v>
-      </c>
-      <c r="G8" s="9">
-        <f t="shared" si="7"/>
+      <c r="F8" s="3">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" si="8"/>
         <v>44810</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I8" s="1">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J8" s="1">
+      <c r="I8" s="2">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J8" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="2">
         <f t="shared" si="4"/>
         <v>4900.5000000000009</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="A9" s="12">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="2">
         <f t="shared" si="6"/>
         <v>67</v>
       </c>
-      <c r="D9" s="1">
-        <f t="shared" si="0"/>
-        <v>72.600000000000009</v>
-      </c>
-      <c r="E9" s="1">
+      <c r="D9" s="2">
+        <f t="shared" si="0"/>
+        <v>72.600000000000009</v>
+      </c>
+      <c r="E9" s="2">
         <f t="shared" si="1"/>
         <v>4864.2000000000007</v>
       </c>
-      <c r="F9" s="9">
-        <v>44813</v>
-      </c>
-      <c r="G9" s="9">
-        <f t="shared" si="7"/>
+      <c r="F9" s="3">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G9" s="3">
+        <f t="shared" si="8"/>
         <v>44811</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I9" s="1">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J9" s="1">
+      <c r="I9" s="2">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J9" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="2">
         <f t="shared" si="4"/>
         <v>4864.2000000000007</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="A10" s="12">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="2">
         <f t="shared" si="6"/>
         <v>66.5</v>
       </c>
-      <c r="D10" s="1">
-        <f t="shared" si="0"/>
-        <v>72.600000000000009</v>
-      </c>
-      <c r="E10" s="1">
+      <c r="D10" s="2">
+        <f t="shared" si="0"/>
+        <v>72.600000000000009</v>
+      </c>
+      <c r="E10" s="2">
         <f t="shared" si="1"/>
         <v>4827.9000000000005</v>
       </c>
-      <c r="F10" s="9">
-        <v>44813</v>
-      </c>
-      <c r="G10" s="9">
-        <f t="shared" si="7"/>
+      <c r="F10" s="3">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G10" s="3">
+        <f t="shared" si="8"/>
         <v>44812</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I10" s="1">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J10" s="1">
+      <c r="I10" s="2">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J10" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="2">
         <f t="shared" si="4"/>
         <v>4827.9000000000005</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="A11" s="12">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="2">
         <f t="shared" si="6"/>
         <v>66</v>
       </c>
-      <c r="D11" s="1">
-        <f t="shared" si="0"/>
-        <v>72.600000000000009</v>
-      </c>
-      <c r="E11" s="1">
+      <c r="D11" s="2">
+        <f t="shared" si="0"/>
+        <v>72.600000000000009</v>
+      </c>
+      <c r="E11" s="2">
         <f t="shared" si="1"/>
         <v>4791.6000000000004</v>
       </c>
-      <c r="F11" s="9">
-        <v>44813</v>
-      </c>
-      <c r="G11" s="9">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="H11" s="1">
+      <c r="F11" s="3">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G11" s="3">
+        <f t="shared" si="8"/>
+        <v>44813</v>
+      </c>
+      <c r="H11" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I11" s="1">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J11" s="1">
+      <c r="I11" s="2">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J11" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11" s="2">
         <f t="shared" si="4"/>
         <v>4791.6000000000004</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="B12" s="1" t="s">
+      <c r="A12" s="12">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="2">
         <f t="shared" si="6"/>
         <v>65.5</v>
       </c>
-      <c r="D12" s="1">
-        <f t="shared" si="0"/>
-        <v>72.600000000000009</v>
-      </c>
-      <c r="E12" s="1">
+      <c r="D12" s="2">
+        <f t="shared" si="0"/>
+        <v>72.600000000000009</v>
+      </c>
+      <c r="E12" s="2">
         <f t="shared" si="1"/>
         <v>4755.3</v>
       </c>
-      <c r="F12" s="9">
-        <v>44813</v>
-      </c>
-      <c r="G12" s="9">
-        <f t="shared" si="7"/>
+      <c r="F12" s="3">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" si="8"/>
         <v>44814</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="2">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="I12" s="1">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J12" s="1">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="K12" s="1">
+      <c r="I12" s="2">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J12" s="2">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="K12" s="2">
         <f t="shared" si="4"/>
         <v>4765.3</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="A13" s="12">
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="2">
         <f t="shared" si="6"/>
         <v>65</v>
       </c>
-      <c r="D13" s="1">
-        <f t="shared" si="0"/>
-        <v>72.600000000000009</v>
-      </c>
-      <c r="E13" s="1">
+      <c r="D13" s="2">
+        <f t="shared" si="0"/>
+        <v>72.600000000000009</v>
+      </c>
+      <c r="E13" s="2">
         <f t="shared" si="1"/>
         <v>4719.0000000000009</v>
       </c>
-      <c r="F13" s="9">
-        <v>44813</v>
-      </c>
-      <c r="G13" s="9">
-        <f t="shared" si="7"/>
+      <c r="F13" s="3">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G13" s="3">
+        <f t="shared" si="8"/>
         <v>44815</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="2">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="I13" s="1">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J13" s="1">
+      <c r="I13" s="2">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J13" s="2">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13" s="2">
         <f t="shared" si="4"/>
         <v>4739.0000000000009</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="A14" s="12">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="2">
         <f t="shared" si="6"/>
         <v>64.5</v>
       </c>
-      <c r="D14" s="1">
-        <f t="shared" si="0"/>
-        <v>72.600000000000009</v>
-      </c>
-      <c r="E14" s="1">
+      <c r="D14" s="2">
+        <f t="shared" si="0"/>
+        <v>72.600000000000009</v>
+      </c>
+      <c r="E14" s="2">
         <f t="shared" si="1"/>
         <v>4682.7000000000007</v>
       </c>
-      <c r="F14" s="9">
-        <v>44813</v>
-      </c>
-      <c r="G14" s="9">
-        <f t="shared" si="7"/>
+      <c r="F14" s="3">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G14" s="3">
+        <f t="shared" si="8"/>
         <v>44816</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="2">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="I14" s="1">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J14" s="1">
+      <c r="I14" s="2">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J14" s="2">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14" s="2">
         <f t="shared" si="4"/>
         <v>4712.7000000000007</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="A15" s="12">
         <f t="shared" si="5"/>
         <v>13</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="2">
         <f t="shared" si="6"/>
         <v>64</v>
       </c>
-      <c r="D15" s="1">
-        <f t="shared" si="0"/>
-        <v>72.600000000000009</v>
-      </c>
-      <c r="E15" s="1">
+      <c r="D15" s="2">
+        <f t="shared" si="0"/>
+        <v>72.600000000000009</v>
+      </c>
+      <c r="E15" s="2">
         <f t="shared" si="1"/>
         <v>4646.4000000000005</v>
       </c>
-      <c r="F15" s="9">
-        <v>44813</v>
-      </c>
-      <c r="G15" s="9">
-        <f t="shared" si="7"/>
+      <c r="F15" s="3">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G15" s="3">
+        <f t="shared" si="8"/>
         <v>44817</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15" s="2">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="I15" s="1">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J15" s="1">
+      <c r="I15" s="2">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J15" s="2">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K15" s="2">
         <f t="shared" si="4"/>
         <v>4686.4000000000005</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="A16" s="12">
         <f t="shared" si="5"/>
         <v>14</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="2">
         <f t="shared" si="6"/>
         <v>63.5</v>
       </c>
-      <c r="D16" s="1">
-        <f t="shared" si="0"/>
-        <v>72.600000000000009</v>
-      </c>
-      <c r="E16" s="1">
+      <c r="D16" s="2">
+        <f t="shared" si="0"/>
+        <v>72.600000000000009</v>
+      </c>
+      <c r="E16" s="2">
         <f t="shared" si="1"/>
         <v>4610.1000000000004</v>
       </c>
-      <c r="F16" s="9">
-        <v>44813</v>
-      </c>
-      <c r="G16" s="9">
-        <f t="shared" si="7"/>
+      <c r="F16" s="3">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G16" s="3">
+        <f t="shared" si="8"/>
         <v>44818</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16" s="2">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="I16" s="1">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J16" s="1">
+      <c r="I16" s="2">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J16" s="2">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K16" s="2">
         <f t="shared" si="4"/>
         <v>4660.1000000000004</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="A17" s="12">
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="2">
         <f t="shared" si="6"/>
         <v>63</v>
       </c>
-      <c r="D17" s="1">
-        <f t="shared" si="0"/>
-        <v>72.600000000000009</v>
-      </c>
-      <c r="E17" s="1">
+      <c r="D17" s="2">
+        <f t="shared" si="0"/>
+        <v>72.600000000000009</v>
+      </c>
+      <c r="E17" s="2">
         <f t="shared" si="1"/>
         <v>4573.8</v>
       </c>
-      <c r="F17" s="9">
-        <v>44813</v>
-      </c>
-      <c r="G17" s="9">
-        <f t="shared" si="7"/>
+      <c r="F17" s="3">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G17" s="3">
+        <f t="shared" si="8"/>
         <v>44819</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17" s="2">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="I17" s="1">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J17" s="1">
+      <c r="I17" s="2">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J17" s="2">
         <f t="shared" si="3"/>
         <v>60</v>
       </c>
-      <c r="K17" s="1">
+      <c r="K17" s="2">
         <f t="shared" si="4"/>
         <v>4633.8</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="A18" s="12">
         <f t="shared" si="5"/>
         <v>16</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="2">
         <f t="shared" si="6"/>
         <v>62.5</v>
       </c>
-      <c r="D18" s="1">
-        <f t="shared" si="0"/>
-        <v>72.600000000000009</v>
-      </c>
-      <c r="E18" s="1">
+      <c r="D18" s="2">
+        <f t="shared" si="0"/>
+        <v>72.600000000000009</v>
+      </c>
+      <c r="E18" s="2">
         <f t="shared" si="1"/>
         <v>4537.5000000000009</v>
       </c>
-      <c r="F18" s="9">
-        <v>44813</v>
-      </c>
-      <c r="G18" s="9">
-        <f t="shared" si="7"/>
+      <c r="F18" s="3">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G18" s="3">
+        <f t="shared" si="8"/>
         <v>44820</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H18" s="2">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="I18" s="1">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J18" s="1">
+      <c r="I18" s="2">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J18" s="2">
         <f t="shared" si="3"/>
         <v>70</v>
       </c>
-      <c r="K18" s="1">
+      <c r="K18" s="2">
         <f t="shared" si="4"/>
         <v>4607.5000000000009</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+      <c r="A19" s="12">
         <f t="shared" si="5"/>
         <v>17</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="2">
         <f t="shared" si="6"/>
         <v>62</v>
       </c>
-      <c r="D19" s="1">
-        <f t="shared" si="0"/>
-        <v>72.600000000000009</v>
-      </c>
-      <c r="E19" s="1">
+      <c r="D19" s="2">
+        <f t="shared" si="0"/>
+        <v>72.600000000000009</v>
+      </c>
+      <c r="E19" s="2">
         <f t="shared" si="1"/>
         <v>4501.2000000000007</v>
       </c>
-      <c r="F19" s="9">
-        <v>44813</v>
-      </c>
-      <c r="G19" s="9">
-        <f t="shared" si="7"/>
+      <c r="F19" s="3">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G19" s="3">
+        <f t="shared" si="8"/>
         <v>44821</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H19" s="2">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="I19" s="1">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J19" s="1">
+      <c r="I19" s="2">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J19" s="2">
         <f t="shared" si="3"/>
         <v>80</v>
       </c>
-      <c r="K19" s="1">
+      <c r="K19" s="2">
         <f t="shared" si="4"/>
         <v>4581.2000000000007</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+      <c r="A20" s="12">
         <f t="shared" si="5"/>
         <v>18</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="2">
         <f t="shared" si="6"/>
         <v>61.5</v>
       </c>
-      <c r="D20" s="1">
-        <f t="shared" si="0"/>
-        <v>72.600000000000009</v>
-      </c>
-      <c r="E20" s="1">
+      <c r="D20" s="2">
+        <f t="shared" si="0"/>
+        <v>72.600000000000009</v>
+      </c>
+      <c r="E20" s="2">
         <f t="shared" si="1"/>
         <v>4464.9000000000005</v>
       </c>
-      <c r="F20" s="9">
-        <v>44813</v>
-      </c>
-      <c r="G20" s="9">
-        <f t="shared" si="7"/>
+      <c r="F20" s="3">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G20" s="3">
+        <f t="shared" si="8"/>
         <v>44822</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H20" s="2">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="I20" s="1">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J20" s="1">
+      <c r="I20" s="2">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J20" s="2">
         <f t="shared" si="3"/>
         <v>90</v>
       </c>
-      <c r="K20" s="1">
+      <c r="K20" s="2">
         <f t="shared" si="4"/>
         <v>4554.9000000000005</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+      <c r="A21" s="12">
         <f t="shared" si="5"/>
         <v>19</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="2">
         <f t="shared" si="6"/>
         <v>61</v>
       </c>
-      <c r="D21" s="1">
-        <f t="shared" si="0"/>
-        <v>72.600000000000009</v>
-      </c>
-      <c r="E21" s="1">
+      <c r="D21" s="2">
+        <f t="shared" si="0"/>
+        <v>72.600000000000009</v>
+      </c>
+      <c r="E21" s="2">
         <f t="shared" si="1"/>
         <v>4428.6000000000004</v>
       </c>
-      <c r="F21" s="9">
-        <v>44813</v>
-      </c>
-      <c r="G21" s="9">
-        <f t="shared" si="7"/>
+      <c r="F21" s="3">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G21" s="3">
+        <f t="shared" si="8"/>
         <v>44823</v>
       </c>
-      <c r="H21" s="1">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="I21" s="1">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J21" s="1">
+      <c r="H21" s="2">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="I21" s="2">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J21" s="2">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="K21" s="1">
+      <c r="K21" s="2">
         <f t="shared" si="4"/>
         <v>4528.6000000000004</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+      <c r="A22" s="12">
         <f t="shared" si="5"/>
         <v>20</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="2">
         <f t="shared" si="6"/>
         <v>60.5</v>
       </c>
-      <c r="D22" s="1">
-        <f t="shared" si="0"/>
-        <v>72.600000000000009</v>
-      </c>
-      <c r="E22" s="1">
+      <c r="D22" s="2">
+        <f t="shared" si="0"/>
+        <v>72.600000000000009</v>
+      </c>
+      <c r="E22" s="2">
         <f t="shared" si="1"/>
         <v>4392.3</v>
       </c>
-      <c r="F22" s="9">
-        <v>44813</v>
-      </c>
-      <c r="G22" s="9">
-        <f t="shared" si="7"/>
+      <c r="F22" s="3">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G22" s="3">
+        <f t="shared" si="8"/>
         <v>44824</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H22" s="2">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="I22" s="1">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J22" s="1">
+      <c r="I22" s="2">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J22" s="2">
         <f t="shared" si="3"/>
         <v>110</v>
       </c>
-      <c r="K22" s="1">
+      <c r="K22" s="2">
         <f t="shared" si="4"/>
         <v>4502.3</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+      <c r="A23" s="12">
         <f t="shared" si="5"/>
         <v>21</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="2">
         <f t="shared" si="6"/>
         <v>60</v>
       </c>
-      <c r="D23" s="1">
-        <f t="shared" si="0"/>
-        <v>72.600000000000009</v>
-      </c>
-      <c r="E23" s="1">
+      <c r="D23" s="2">
+        <f t="shared" si="0"/>
+        <v>72.600000000000009</v>
+      </c>
+      <c r="E23" s="2">
         <f t="shared" si="1"/>
         <v>4356.0000000000009</v>
       </c>
-      <c r="F23" s="9">
-        <v>44813</v>
-      </c>
-      <c r="G23" s="9">
-        <f t="shared" si="7"/>
+      <c r="F23" s="3">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G23" s="3">
+        <f t="shared" si="8"/>
         <v>44825</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H23" s="2">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="I23" s="1">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J23" s="1">
+      <c r="I23" s="2">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J23" s="2">
         <f t="shared" si="3"/>
         <v>120</v>
       </c>
-      <c r="K23" s="1">
+      <c r="K23" s="2">
         <f t="shared" si="4"/>
         <v>4476.0000000000009</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+      <c r="A24" s="12">
         <f t="shared" si="5"/>
         <v>22</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="2">
         <f t="shared" si="6"/>
         <v>59.5</v>
       </c>
-      <c r="D24" s="1">
-        <f t="shared" si="0"/>
-        <v>72.600000000000009</v>
-      </c>
-      <c r="E24" s="1">
+      <c r="D24" s="2">
+        <f t="shared" si="0"/>
+        <v>72.600000000000009</v>
+      </c>
+      <c r="E24" s="2">
         <f t="shared" si="1"/>
         <v>4319.7000000000007</v>
       </c>
-      <c r="F24" s="9">
-        <v>44813</v>
-      </c>
-      <c r="G24" s="9">
-        <f t="shared" si="7"/>
+      <c r="F24" s="3">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G24" s="3">
+        <f t="shared" si="8"/>
         <v>44826</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H24" s="2">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="I24" s="1">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J24" s="1">
+      <c r="I24" s="2">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J24" s="2">
         <f t="shared" si="3"/>
         <v>130</v>
       </c>
-      <c r="K24" s="1">
+      <c r="K24" s="2">
         <f t="shared" si="4"/>
         <v>4449.7000000000007</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+      <c r="A25" s="12">
         <f t="shared" si="5"/>
         <v>23</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="2">
         <f t="shared" si="6"/>
         <v>59</v>
       </c>
-      <c r="D25" s="1">
-        <f t="shared" si="0"/>
-        <v>72.600000000000009</v>
-      </c>
-      <c r="E25" s="1">
+      <c r="D25" s="2">
+        <f t="shared" si="0"/>
+        <v>72.600000000000009</v>
+      </c>
+      <c r="E25" s="2">
         <f t="shared" si="1"/>
         <v>4283.4000000000005</v>
       </c>
-      <c r="F25" s="9">
-        <v>44813</v>
-      </c>
-      <c r="G25" s="9">
-        <f t="shared" si="7"/>
+      <c r="F25" s="3">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G25" s="3">
+        <f t="shared" si="8"/>
         <v>44827</v>
       </c>
-      <c r="H25" s="1">
+      <c r="H25" s="2">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="I25" s="1">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J25" s="1">
+      <c r="I25" s="2">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J25" s="2">
         <f t="shared" si="3"/>
         <v>140</v>
       </c>
-      <c r="K25" s="1">
+      <c r="K25" s="2">
         <f t="shared" si="4"/>
         <v>4423.4000000000005</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+      <c r="A26" s="12">
         <f t="shared" si="5"/>
         <v>24</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="2">
         <f t="shared" si="6"/>
         <v>58.5</v>
       </c>
-      <c r="D26" s="1">
-        <f t="shared" si="0"/>
-        <v>72.600000000000009</v>
-      </c>
-      <c r="E26" s="1">
+      <c r="D26" s="2">
+        <f t="shared" si="0"/>
+        <v>72.600000000000009</v>
+      </c>
+      <c r="E26" s="2">
         <f t="shared" si="1"/>
         <v>4247.1000000000004</v>
       </c>
-      <c r="F26" s="9">
-        <v>44813</v>
-      </c>
-      <c r="G26" s="9">
-        <f t="shared" si="7"/>
+      <c r="F26" s="3">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G26" s="3">
+        <f t="shared" si="8"/>
         <v>44828</v>
       </c>
-      <c r="H26" s="1">
+      <c r="H26" s="2">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="I26" s="1">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J26" s="1">
+      <c r="I26" s="2">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J26" s="2">
         <f t="shared" si="3"/>
         <v>150</v>
       </c>
-      <c r="K26" s="1">
+      <c r="K26" s="2">
         <f t="shared" si="4"/>
         <v>4397.1000000000004</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+      <c r="A27" s="12">
         <f t="shared" si="5"/>
         <v>25</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="2">
         <f t="shared" si="6"/>
         <v>58</v>
       </c>
-      <c r="D27" s="1">
-        <f t="shared" si="0"/>
-        <v>72.600000000000009</v>
-      </c>
-      <c r="E27" s="1">
+      <c r="D27" s="2">
+        <f t="shared" si="0"/>
+        <v>72.600000000000009</v>
+      </c>
+      <c r="E27" s="2">
         <f t="shared" si="1"/>
         <v>4210.8</v>
       </c>
-      <c r="F27" s="9">
-        <v>44813</v>
-      </c>
-      <c r="G27" s="9">
-        <f t="shared" si="7"/>
+      <c r="F27" s="3">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G27" s="3">
+        <f t="shared" si="8"/>
         <v>44829</v>
       </c>
-      <c r="H27" s="1">
+      <c r="H27" s="2">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="I27" s="1">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J27" s="1">
+      <c r="I27" s="2">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J27" s="2">
         <f t="shared" si="3"/>
         <v>160</v>
       </c>
-      <c r="K27" s="1">
+      <c r="K27" s="2">
         <f t="shared" si="4"/>
         <v>4370.8</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+      <c r="A28" s="12">
         <f t="shared" si="5"/>
         <v>26</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="2">
         <f t="shared" si="6"/>
         <v>57.5</v>
       </c>
-      <c r="D28" s="1">
-        <f t="shared" si="0"/>
-        <v>72.600000000000009</v>
-      </c>
-      <c r="E28" s="1">
+      <c r="D28" s="2">
+        <f t="shared" si="0"/>
+        <v>72.600000000000009</v>
+      </c>
+      <c r="E28" s="2">
         <f t="shared" si="1"/>
         <v>4174.5000000000009</v>
       </c>
-      <c r="F28" s="9">
-        <v>44813</v>
-      </c>
-      <c r="G28" s="9">
-        <f t="shared" si="7"/>
+      <c r="F28" s="3">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G28" s="3">
+        <f t="shared" si="8"/>
         <v>44830</v>
       </c>
-      <c r="H28" s="1">
+      <c r="H28" s="2">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="I28" s="1">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J28" s="1">
+      <c r="I28" s="2">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J28" s="2">
         <f t="shared" si="3"/>
         <v>170</v>
       </c>
-      <c r="K28" s="1">
+      <c r="K28" s="2">
         <f t="shared" si="4"/>
         <v>4344.5000000000009</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+      <c r="A29" s="12">
         <f t="shared" si="5"/>
         <v>27</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="2">
         <f t="shared" si="6"/>
         <v>57</v>
       </c>
-      <c r="D29" s="1">
-        <f t="shared" si="0"/>
-        <v>72.600000000000009</v>
-      </c>
-      <c r="E29" s="1">
+      <c r="D29" s="2">
+        <f t="shared" si="0"/>
+        <v>72.600000000000009</v>
+      </c>
+      <c r="E29" s="2">
         <f t="shared" si="1"/>
         <v>4138.2000000000007</v>
       </c>
-      <c r="F29" s="9">
-        <v>44813</v>
-      </c>
-      <c r="G29" s="9">
-        <f t="shared" si="7"/>
+      <c r="F29" s="3">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G29" s="3">
+        <f t="shared" si="8"/>
         <v>44831</v>
       </c>
-      <c r="H29" s="1">
+      <c r="H29" s="2">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="I29" s="1">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J29" s="1">
+      <c r="I29" s="2">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J29" s="2">
         <f t="shared" si="3"/>
         <v>180</v>
       </c>
-      <c r="K29" s="1">
+      <c r="K29" s="2">
         <f t="shared" si="4"/>
         <v>4318.2000000000007</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+      <c r="A30" s="12">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="2">
         <f t="shared" si="6"/>
         <v>56.5</v>
       </c>
-      <c r="D30" s="1">
-        <f t="shared" si="0"/>
-        <v>72.600000000000009</v>
-      </c>
-      <c r="E30" s="1">
+      <c r="D30" s="2">
+        <f t="shared" si="0"/>
+        <v>72.600000000000009</v>
+      </c>
+      <c r="E30" s="2">
         <f t="shared" si="1"/>
         <v>4101.9000000000005</v>
       </c>
-      <c r="F30" s="9">
-        <v>44813</v>
-      </c>
-      <c r="G30" s="9">
-        <f t="shared" si="7"/>
+      <c r="F30" s="3">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G30" s="3">
+        <f t="shared" si="8"/>
         <v>44832</v>
       </c>
-      <c r="H30" s="1">
+      <c r="H30" s="2">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="I30" s="1">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J30" s="1">
+      <c r="I30" s="2">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J30" s="2">
         <f t="shared" si="3"/>
         <v>190</v>
       </c>
-      <c r="K30" s="1">
+      <c r="K30" s="2">
         <f t="shared" si="4"/>
         <v>4291.9000000000005</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
+      <c r="A31" s="12">
         <f t="shared" si="5"/>
         <v>29</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="2">
         <f t="shared" si="6"/>
         <v>56</v>
       </c>
-      <c r="D31" s="1">
-        <f t="shared" si="0"/>
-        <v>72.600000000000009</v>
-      </c>
-      <c r="E31" s="1">
+      <c r="D31" s="2">
+        <f t="shared" si="0"/>
+        <v>72.600000000000009</v>
+      </c>
+      <c r="E31" s="2">
         <f t="shared" si="1"/>
         <v>4065.6000000000004</v>
       </c>
-      <c r="F31" s="9">
-        <v>44813</v>
-      </c>
-      <c r="G31" s="9">
-        <f t="shared" si="7"/>
+      <c r="F31" s="3">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G31" s="3">
+        <f t="shared" si="8"/>
         <v>44833</v>
       </c>
-      <c r="H31" s="1">
+      <c r="H31" s="2">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="I31" s="1">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J31" s="1">
+      <c r="I31" s="2">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J31" s="2">
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="K31" s="1">
+      <c r="K31" s="2">
         <f t="shared" si="4"/>
         <v>4265.6000000000004</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+      <c r="A32" s="12">
         <f t="shared" si="5"/>
         <v>30</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="2">
         <f t="shared" si="6"/>
         <v>55.5</v>
       </c>
-      <c r="D32" s="1">
-        <f t="shared" si="0"/>
-        <v>72.600000000000009</v>
-      </c>
-      <c r="E32" s="1">
+      <c r="D32" s="2">
+        <f t="shared" si="0"/>
+        <v>72.600000000000009</v>
+      </c>
+      <c r="E32" s="2">
         <f t="shared" si="1"/>
         <v>4029.3000000000006</v>
       </c>
-      <c r="F32" s="9">
-        <v>44813</v>
-      </c>
-      <c r="G32" s="9">
-        <f t="shared" si="7"/>
+      <c r="F32" s="3">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G32" s="3">
+        <f t="shared" si="8"/>
         <v>44834</v>
       </c>
-      <c r="H32" s="1">
+      <c r="H32" s="2">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="I32" s="1">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J32" s="1">
+      <c r="I32" s="2">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J32" s="2">
         <f t="shared" si="3"/>
         <v>210</v>
       </c>
-      <c r="K32" s="1">
+      <c r="K32" s="2">
         <f t="shared" si="4"/>
         <v>4239.3000000000011</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
+      <c r="A33" s="12">
         <f t="shared" si="5"/>
         <v>31</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="2">
         <f t="shared" si="6"/>
         <v>55</v>
       </c>
-      <c r="D33" s="1">
-        <f t="shared" si="0"/>
-        <v>72.600000000000009</v>
-      </c>
-      <c r="E33" s="1">
+      <c r="D33" s="2">
+        <f t="shared" si="0"/>
+        <v>72.600000000000009</v>
+      </c>
+      <c r="E33" s="2">
         <f t="shared" si="1"/>
         <v>3993.0000000000005</v>
       </c>
-      <c r="F33" s="9">
-        <v>44813</v>
-      </c>
-      <c r="G33" s="9">
-        <f t="shared" si="7"/>
+      <c r="F33" s="3">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G33" s="3">
+        <f t="shared" si="8"/>
         <v>44835</v>
       </c>
-      <c r="H33" s="1">
+      <c r="H33" s="2">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="I33" s="1">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J33" s="1">
+      <c r="I33" s="2">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J33" s="2">
         <f t="shared" si="3"/>
         <v>220</v>
       </c>
-      <c r="K33" s="1">
+      <c r="K33" s="2">
         <f t="shared" si="4"/>
         <v>4213</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
+      <c r="A34" s="12">
         <f t="shared" si="5"/>
         <v>32</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="2">
         <f t="shared" si="6"/>
         <v>54.5</v>
       </c>
-      <c r="D34" s="1">
-        <f t="shared" si="0"/>
-        <v>72.600000000000009</v>
-      </c>
-      <c r="E34" s="1">
+      <c r="D34" s="2">
+        <f t="shared" si="0"/>
+        <v>72.600000000000009</v>
+      </c>
+      <c r="E34" s="2">
         <f t="shared" si="1"/>
         <v>3956.7000000000003</v>
       </c>
-      <c r="F34" s="9">
-        <v>44813</v>
-      </c>
-      <c r="G34" s="9">
-        <f t="shared" si="7"/>
+      <c r="F34" s="3">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G34" s="3">
+        <f t="shared" si="8"/>
         <v>44836</v>
       </c>
-      <c r="H34" s="1">
+      <c r="H34" s="2">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="I34" s="1">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J34" s="1">
+      <c r="I34" s="2">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J34" s="2">
         <f t="shared" si="3"/>
         <v>230</v>
       </c>
-      <c r="K34" s="1">
+      <c r="K34" s="2">
         <f t="shared" si="4"/>
         <v>4186.7000000000007</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
+      <c r="A35" s="12">
         <f t="shared" si="5"/>
         <v>33</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="2">
         <f t="shared" si="6"/>
         <v>54</v>
       </c>
-      <c r="D35" s="1">
-        <f>$A$1*1.1/2</f>
+      <c r="D35" s="2">
+        <f>D3/2</f>
         <v>36.300000000000004</v>
       </c>
-      <c r="E35" s="1">
-        <f t="shared" si="1"/>
+      <c r="E35" s="2">
+        <f>C35*D35</f>
         <v>1960.2000000000003</v>
       </c>
-      <c r="F35" s="9">
-        <v>44813</v>
-      </c>
-      <c r="G35" s="9">
-        <f t="shared" si="7"/>
+      <c r="F35" s="3">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G35" s="3">
+        <f t="shared" si="8"/>
         <v>44837</v>
       </c>
-      <c r="H35" s="1">
+      <c r="H35" s="2">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="I35" s="1">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J35" s="1">
+      <c r="I35" s="2">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J35" s="2">
         <f t="shared" si="3"/>
         <v>240</v>
       </c>
-      <c r="K35" s="1">
+      <c r="K35" s="2">
         <f t="shared" si="4"/>
         <v>2200.2000000000003</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
+      <c r="A36" s="12">
         <f t="shared" si="5"/>
         <v>34</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="2">
         <f t="shared" si="6"/>
         <v>53.5</v>
       </c>
-      <c r="D36" s="1">
-        <f t="shared" ref="D36:D38" si="9">$A$1*1.1/2</f>
+      <c r="D36" s="2">
+        <f>D3/2</f>
         <v>36.300000000000004</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36" s="2">
         <f t="shared" si="1"/>
         <v>1942.0500000000002</v>
       </c>
-      <c r="F36" s="9">
-        <v>44813</v>
-      </c>
-      <c r="G36" s="9">
-        <f t="shared" si="7"/>
+      <c r="F36" s="3">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G36" s="3">
+        <f t="shared" si="8"/>
         <v>44838</v>
       </c>
-      <c r="H36" s="1">
+      <c r="H36" s="2">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="I36" s="1">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J36" s="1">
+      <c r="I36" s="2">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J36" s="2">
         <f t="shared" si="3"/>
         <v>250</v>
       </c>
-      <c r="K36" s="1">
+      <c r="K36" s="2">
         <f t="shared" si="4"/>
         <v>2192.0500000000002</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
+      <c r="A37" s="12">
         <f t="shared" si="5"/>
         <v>35</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="2">
         <f t="shared" si="6"/>
         <v>53</v>
       </c>
-      <c r="D37" s="1">
-        <f t="shared" si="9"/>
+      <c r="D37" s="2">
+        <f>D3/2</f>
         <v>36.300000000000004</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37" s="2">
         <f t="shared" si="1"/>
         <v>1923.9000000000003</v>
       </c>
-      <c r="F37" s="9">
-        <v>44813</v>
-      </c>
-      <c r="G37" s="9">
-        <f t="shared" si="7"/>
+      <c r="F37" s="3">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G37" s="3">
+        <f t="shared" si="8"/>
         <v>44839</v>
       </c>
-      <c r="H37" s="1">
+      <c r="H37" s="2">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="I37" s="1">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J37" s="1">
+      <c r="I37" s="2">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J37" s="2">
         <f t="shared" si="3"/>
         <v>260</v>
       </c>
-      <c r="K37" s="1">
+      <c r="K37" s="2">
         <f t="shared" si="4"/>
         <v>2183.9000000000005</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
+      <c r="A38" s="12">
         <f t="shared" si="5"/>
         <v>36</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="2">
         <f t="shared" si="6"/>
         <v>52.5</v>
       </c>
-      <c r="D38" s="1">
-        <f t="shared" si="9"/>
+      <c r="D38" s="2">
+        <f>D3/2</f>
         <v>36.300000000000004</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E38" s="2">
         <f t="shared" si="1"/>
         <v>1905.7500000000002</v>
       </c>
-      <c r="F38" s="9">
-        <v>44813</v>
-      </c>
-      <c r="G38" s="9">
-        <f t="shared" si="7"/>
+      <c r="F38" s="3">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G38" s="3">
+        <f t="shared" si="8"/>
         <v>44840</v>
       </c>
-      <c r="H38" s="1">
+      <c r="H38" s="2">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="I38" s="1">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J38" s="1">
+      <c r="I38" s="2">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J38" s="2">
         <f t="shared" si="3"/>
         <v>270</v>
       </c>
-      <c r="K38" s="1">
+      <c r="K38" s="2">
         <f t="shared" si="4"/>
         <v>2175.75</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C40" s="2">
-        <f>_xlfn.FLOOR.MATH(SUM(K3:K38))</f>
+      <c r="B40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="13">
+        <f>FLOOR(SUM(K3:K38),1)</f>
         <v>156131</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41" s="1">
         <f>AVERAGE(C3:C38)</f>
         <v>61.25</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B42" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C42" s="2">
+      <c r="B42" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
         <v>27</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B43" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C43" s="2">
+      <c r="B43" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" s="1">
         <f>MAX(K3:K38)</f>
         <v>5082.0000000000009</v>
       </c>

--- a/LR3/table_1_66.xlsx
+++ b/LR3/table_1_66.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{150A96C0-C737-4744-B885-FB9A9FB6C440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{329697EC-EAAF-4257-B56C-4C4A32F8090D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,9 +49,6 @@
     <t>Штраф, руб.</t>
   </si>
   <si>
-    <t>Куропаткин 1</t>
-  </si>
-  <si>
     <t>Итого, руб.</t>
   </si>
   <si>
@@ -82,122 +79,133 @@
     <t>Максимальная сумма, руб.</t>
   </si>
   <si>
-    <t>Аллаяров </t>
-  </si>
-  <si>
     <t>Аминов</t>
   </si>
   <si>
-    <t>Байков </t>
-  </si>
-  <si>
-    <t>Бондаренко </t>
-  </si>
-  <si>
-    <t>Бубнов </t>
-  </si>
-  <si>
-    <t>Валиев </t>
-  </si>
-  <si>
-    <t>Галеев </t>
-  </si>
-  <si>
-    <t>Гилемов </t>
-  </si>
-  <si>
-    <t>Ибадов </t>
-  </si>
-  <si>
-    <t>Исхаков </t>
-  </si>
-  <si>
-    <t>Кириллова </t>
-  </si>
-  <si>
-    <t>Кочетков </t>
-  </si>
-  <si>
-    <t>Крылов </t>
-  </si>
-  <si>
-    <t>Марданов </t>
-  </si>
-  <si>
-    <t>Машуров </t>
-  </si>
-  <si>
-    <t>Медведкова </t>
-  </si>
-  <si>
-    <t>Миронов </t>
-  </si>
-  <si>
-    <t>Орлов </t>
-  </si>
-  <si>
-    <t>Раин </t>
-  </si>
-  <si>
-    <t>Редькин </t>
-  </si>
-  <si>
-    <t>Сайфулин </t>
-  </si>
-  <si>
-    <t>Сеняшина </t>
-  </si>
-  <si>
-    <t>Соловьёва </t>
-  </si>
-  <si>
-    <t>Табаков </t>
-  </si>
-  <si>
-    <t>Филимонов </t>
-  </si>
-  <si>
-    <t>Хакимова </t>
-  </si>
-  <si>
-    <t>Хамидуллин </t>
-  </si>
-  <si>
-    <t>Черёмухин </t>
-  </si>
-  <si>
-    <t>Шайхутдинов </t>
-  </si>
-  <si>
-    <t>Якубов </t>
-  </si>
-  <si>
     <t>Алимжанов</t>
   </si>
   <si>
-    <t>Аллаярова </t>
-  </si>
-  <si>
-    <t>Курочкин </t>
-  </si>
-  <si>
-    <t>Торощина </t>
-  </si>
-  <si>
-    <t>Федько </t>
+    <t>Аллаяров</t>
+  </si>
+  <si>
+    <t>Арсланов</t>
+  </si>
+  <si>
+    <t>Байков</t>
+  </si>
+  <si>
+    <t>Бондаренко</t>
+  </si>
+  <si>
+    <t>Бубнов</t>
+  </si>
+  <si>
+    <t>Валиев</t>
+  </si>
+  <si>
+    <t>Галеев</t>
+  </si>
+  <si>
+    <t>Гилемов</t>
+  </si>
+  <si>
+    <t>Ибадов</t>
+  </si>
+  <si>
+    <t>Исхаков</t>
+  </si>
+  <si>
+    <t>Кириллова</t>
+  </si>
+  <si>
+    <t>Кочетков</t>
+  </si>
+  <si>
+    <t>Крылов</t>
+  </si>
+  <si>
+    <t>Марданов</t>
+  </si>
+  <si>
+    <t>Машуров</t>
+  </si>
+  <si>
+    <t>Медведкова</t>
+  </si>
+  <si>
+    <t>Миронов</t>
+  </si>
+  <si>
+    <t>Орлов</t>
+  </si>
+  <si>
+    <t>Раин</t>
+  </si>
+  <si>
+    <t>Редькин</t>
+  </si>
+  <si>
+    <t>Сайфулин</t>
+  </si>
+  <si>
+    <t>Сеняшина</t>
+  </si>
+  <si>
+    <t>Соловьёва</t>
+  </si>
+  <si>
+    <t>Табаков</t>
+  </si>
+  <si>
+    <t>Торощина</t>
+  </si>
+  <si>
+    <t>Федько</t>
+  </si>
+  <si>
+    <t>Филимонов</t>
+  </si>
+  <si>
+    <t>Хакимова</t>
+  </si>
+  <si>
+    <t>Хамидуллин</t>
+  </si>
+  <si>
+    <t>Черёмухин</t>
+  </si>
+  <si>
+    <t>Шайхутдинов</t>
+  </si>
+  <si>
+    <t>Якубов</t>
+  </si>
+  <si>
+    <t>Аллаярова</t>
+  </si>
+  <si>
+    <t>Курочкин</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -244,44 +252,46 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{258A4B33-44C8-4565-9E42-A21B9B014FB5}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -595,8 +605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -635,16 +645,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>1</v>
@@ -653,16 +663,16 @@
         <v>2</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>4</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -670,7 +680,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2">
         <v>70</v>
@@ -711,7 +721,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2">
         <f>C3-0.5</f>
@@ -2151,7 +2161,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="C36" s="2">
         <f t="shared" si="6"/>
@@ -2196,7 +2206,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C37" s="2">
         <f t="shared" si="6"/>
@@ -2241,7 +2251,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="C38" s="2">
         <f t="shared" si="6"/>
@@ -2282,7 +2292,7 @@
     </row>
     <row r="40" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C40" s="13">
         <f>FLOOR(SUM(K3:K38),1)</f>
@@ -2291,7 +2301,7 @@
     </row>
     <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C41" s="1">
         <f>AVERAGE(C3:C38)</f>
@@ -2300,7 +2310,7 @@
     </row>
     <row r="42" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B42" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
@@ -2309,7 +2319,7 @@
     </row>
     <row r="43" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B43" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_66.xlsx
+++ b/LR3/table_1_66.xlsx
@@ -168,7 +168,7 @@
     <t>Максимальный срок просрочки, дней</t>
   </si>
   <si>
-    <t>Максимальная сумма, руб.</t>
+    <t xml:space="preserve">Максимальная сумма, руб. </t>
   </si>
 </sst>
 </file>
@@ -528,7 +528,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/LR3/table_1_66.xlsx
+++ b/LR3/table_1_66.xlsx
@@ -168,7 +168,7 @@
     <t>Максимальный срок просрочки, дней</t>
   </si>
   <si>
-    <t xml:space="preserve">Максимальная сумма, руб. </t>
+    <t>Максимальная сумма, руб.</t>
   </si>
 </sst>
 </file>

--- a/LR3/table_1_66.xlsx
+++ b/LR3/table_1_66.xlsx
@@ -21,9 +21,6 @@
     <t>№ квартиры</t>
   </si>
   <si>
-    <t>Фамилия квартиросъемщика</t>
-  </si>
-  <si>
     <t>Алишеров</t>
   </si>
   <si>
@@ -135,9 +132,6 @@
     <t>Площадь, кв.м.</t>
   </si>
   <si>
-    <t>Тариф, руб.</t>
-  </si>
-  <si>
     <t>Срок оплаты</t>
   </si>
   <si>
@@ -169,6 +163,12 @@
   </si>
   <si>
     <t>Максимальная сумма, руб.</t>
+  </si>
+  <si>
+    <t>Фамилия квартиросъёмщика</t>
+  </si>
+  <si>
+    <t>Тариф, руб./кв.м.</t>
   </si>
 </sst>
 </file>
@@ -527,8 +527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -556,34 +556,34 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="G2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -591,7 +591,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1">
         <v>70</v>
@@ -632,1442 +632,1544 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1">
         <f>C3-0.5</f>
         <v>69.5</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D4:D34" si="0">$A$1*1.1</f>
+        <f>D3</f>
         <v>72.600000000000009</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E4:E37" si="1">C4*D4</f>
+        <f t="shared" ref="E4:E37" si="0">C4*D4</f>
         <v>5045.7000000000007</v>
       </c>
       <c r="F4" s="2">
+        <f>F3</f>
         <v>44813</v>
       </c>
       <c r="G4" s="2">
+        <f>G3+1</f>
         <v>44806</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" ref="H4:H38" si="2">IF(G4&lt;=F4,0,G4-F4)</f>
+        <f t="shared" ref="H4:H38" si="1">IF(G4&lt;=F4,0,G4-F4)</f>
         <v>0</v>
       </c>
       <c r="I4" s="1">
+        <f>I3</f>
         <v>10</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" ref="J4:J38" si="3">I4*H4</f>
+        <f t="shared" ref="J4:J38" si="2">I4*H4</f>
         <v>0</v>
       </c>
       <c r="K4" s="1">
-        <f t="shared" ref="K4:K38" si="4">E4+J4</f>
+        <f t="shared" ref="K4:K38" si="3">E4+J4</f>
         <v>5045.7000000000007</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <f t="shared" ref="A5:A38" si="5">A4+1</f>
+        <f t="shared" ref="A5:A38" si="4">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" ref="C5:C38" si="6">C4-0.5</f>
+        <f t="shared" ref="C5:C38" si="5">C4-0.5</f>
         <v>69</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D5:D34" si="6">D4</f>
         <v>72.600000000000009</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5009.4000000000005</v>
       </c>
       <c r="F5" s="2">
+        <f t="shared" ref="F5:F38" si="7">F4</f>
         <v>44813</v>
       </c>
       <c r="G5" s="2">
+        <f t="shared" ref="G5:G38" si="8">G4+1</f>
         <v>44807</v>
       </c>
       <c r="H5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I5" s="1">
+        <f t="shared" ref="I5:I38" si="9">I4</f>
         <v>10</v>
       </c>
       <c r="J5" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K5" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5009.4000000000005</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>68.5</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>72.600000000000009</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4973.1000000000004</v>
       </c>
       <c r="F6" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G6" s="2">
+        <f t="shared" si="8"/>
         <v>44808</v>
       </c>
       <c r="H6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I6" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J6" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K6" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4973.1000000000004</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>68</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>72.600000000000009</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4936.8</v>
       </c>
       <c r="F7" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G7" s="2">
+        <f t="shared" si="8"/>
         <v>44809</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I7" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K7" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4936.8</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>67.5</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>72.600000000000009</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4900.5000000000009</v>
       </c>
       <c r="F8" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G8" s="2">
+        <f t="shared" si="8"/>
         <v>44810</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I8" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J8" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K8" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4900.5000000000009</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>67</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>72.600000000000009</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4864.2000000000007</v>
       </c>
       <c r="F9" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G9" s="2">
+        <f t="shared" si="8"/>
         <v>44811</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I9" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4864.2000000000007</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>66.5</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>72.600000000000009</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4827.9000000000005</v>
       </c>
       <c r="F10" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G10" s="2">
+        <f t="shared" si="8"/>
         <v>44812</v>
       </c>
       <c r="H10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I10" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J10" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K10" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4827.9000000000005</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>66</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>72.600000000000009</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4791.6000000000004</v>
       </c>
       <c r="F11" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G11" s="2">
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I11" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K11" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4791.6000000000004</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>65.5</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>72.600000000000009</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4755.3</v>
       </c>
       <c r="F12" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G12" s="2">
+        <f t="shared" si="8"/>
         <v>44814</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I12" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J12" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="K12" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4765.3</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>65</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>72.600000000000009</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4719.0000000000009</v>
       </c>
       <c r="F13" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G13" s="2">
+        <f t="shared" si="8"/>
         <v>44815</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I13" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J13" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="K13" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4739.0000000000009</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>64.5</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>72.600000000000009</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4682.7000000000007</v>
       </c>
       <c r="F14" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G14" s="2">
+        <f t="shared" si="8"/>
         <v>44816</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I14" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="K14" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4712.7000000000007</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>64</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>72.600000000000009</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4646.4000000000005</v>
       </c>
       <c r="F15" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G15" s="2">
+        <f t="shared" si="8"/>
         <v>44817</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I15" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="K15" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4686.4000000000005</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>63.5</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>72.600000000000009</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4610.1000000000004</v>
       </c>
       <c r="F16" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G16" s="2">
+        <f t="shared" si="8"/>
         <v>44818</v>
       </c>
       <c r="H16" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="I16" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J16" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="K16" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4660.1000000000004</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>63</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>72.600000000000009</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4573.8</v>
       </c>
       <c r="F17" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G17" s="2">
+        <f t="shared" si="8"/>
         <v>44819</v>
       </c>
       <c r="H17" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="I17" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J17" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="K17" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4633.8</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>62.5</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>72.600000000000009</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4537.5000000000009</v>
       </c>
       <c r="F18" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G18" s="2">
+        <f t="shared" si="8"/>
         <v>44820</v>
       </c>
       <c r="H18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="I18" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J18" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="K18" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4607.5000000000009</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>62</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>72.600000000000009</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4501.2000000000007</v>
       </c>
       <c r="F19" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G19" s="2">
+        <f t="shared" si="8"/>
         <v>44821</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="I19" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="K19" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4581.2000000000007</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>61.5</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>72.600000000000009</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4464.9000000000005</v>
       </c>
       <c r="F20" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G20" s="2">
+        <f t="shared" si="8"/>
         <v>44822</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="I20" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4554.9000000000005</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>61</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>72.600000000000009</v>
       </c>
       <c r="E21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4428.6000000000004</v>
       </c>
       <c r="F21" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G21" s="2">
+        <f t="shared" si="8"/>
         <v>44823</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="I21" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="K21" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4528.6000000000004</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>60.5</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>72.600000000000009</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4392.3</v>
       </c>
       <c r="F22" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G22" s="2">
+        <f t="shared" si="8"/>
         <v>44824</v>
       </c>
       <c r="H22" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="I22" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J22" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>110</v>
       </c>
       <c r="K22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4502.3</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>72.600000000000009</v>
       </c>
       <c r="E23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4356.0000000000009</v>
       </c>
       <c r="F23" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G23" s="2">
+        <f t="shared" si="8"/>
         <v>44825</v>
       </c>
       <c r="H23" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="I23" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J23" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>120</v>
       </c>
       <c r="K23" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4476.0000000000009</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>59.5</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>72.600000000000009</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4319.7000000000007</v>
       </c>
       <c r="F24" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G24" s="2">
+        <f t="shared" si="8"/>
         <v>44826</v>
       </c>
       <c r="H24" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="I24" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J24" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>130</v>
       </c>
       <c r="K24" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4449.7000000000007</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>59</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>72.600000000000009</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4283.4000000000005</v>
       </c>
       <c r="F25" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G25" s="2">
+        <f t="shared" si="8"/>
         <v>44827</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="I25" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J25" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>140</v>
       </c>
       <c r="K25" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4423.4000000000005</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>58.5</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>72.600000000000009</v>
       </c>
       <c r="E26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4247.1000000000004</v>
       </c>
       <c r="F26" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G26" s="2">
+        <f t="shared" si="8"/>
         <v>44828</v>
       </c>
       <c r="H26" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="I26" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J26" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="K26" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4397.1000000000004</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>58</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>72.600000000000009</v>
       </c>
       <c r="E27" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4210.8</v>
       </c>
       <c r="F27" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G27" s="2">
+        <f t="shared" si="8"/>
         <v>44829</v>
       </c>
       <c r="H27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="I27" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J27" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>160</v>
       </c>
       <c r="K27" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4370.8</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C28" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>57.5</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>72.600000000000009</v>
       </c>
       <c r="E28" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4174.5000000000009</v>
       </c>
       <c r="F28" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G28" s="2">
+        <f t="shared" si="8"/>
         <v>44830</v>
       </c>
       <c r="H28" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="I28" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J28" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
       <c r="K28" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4344.5000000000009</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C29" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>57</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>72.600000000000009</v>
       </c>
       <c r="E29" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4138.2000000000007</v>
       </c>
       <c r="F29" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G29" s="2">
+        <f t="shared" si="8"/>
         <v>44831</v>
       </c>
       <c r="H29" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="I29" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J29" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="K29" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4318.2000000000007</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C30" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>56.5</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>72.600000000000009</v>
       </c>
       <c r="E30" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4101.9000000000005</v>
       </c>
       <c r="F30" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G30" s="2">
+        <f t="shared" si="8"/>
         <v>44832</v>
       </c>
       <c r="H30" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="I30" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J30" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>190</v>
       </c>
       <c r="K30" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4291.9000000000005</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C31" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>56</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>72.600000000000009</v>
       </c>
       <c r="E31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4065.6000000000004</v>
       </c>
       <c r="F31" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G31" s="2">
+        <f t="shared" si="8"/>
         <v>44833</v>
       </c>
       <c r="H31" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="I31" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J31" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
       <c r="K31" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4265.6000000000004</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C32" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>55.5</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>72.600000000000009</v>
       </c>
       <c r="E32" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4029.3000000000006</v>
       </c>
       <c r="F32" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G32" s="2">
+        <f t="shared" si="8"/>
         <v>44834</v>
       </c>
       <c r="H32" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="I32" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J32" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>210</v>
       </c>
       <c r="K32" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4239.3000000000011</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C33" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>55</v>
       </c>
       <c r="D33" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>72.600000000000009</v>
       </c>
       <c r="E33" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3993.0000000000005</v>
       </c>
       <c r="F33" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G33" s="2">
+        <f t="shared" si="8"/>
         <v>44835</v>
       </c>
       <c r="H33" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="I33" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J33" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>220</v>
       </c>
       <c r="K33" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4213</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C34" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>54.5</v>
       </c>
       <c r="D34" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>72.600000000000009</v>
       </c>
       <c r="E34" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3956.7000000000003</v>
       </c>
       <c r="F34" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G34" s="2">
+        <f t="shared" si="8"/>
         <v>44836</v>
       </c>
       <c r="H34" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="I34" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J34" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>230</v>
       </c>
       <c r="K34" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4186.7000000000007</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C35" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>54</v>
       </c>
       <c r="D35" s="1">
-        <f>$A$1*1.1/2</f>
+        <f>D3/2</f>
         <v>36.300000000000004</v>
       </c>
       <c r="E35" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1960.2000000000003</v>
       </c>
       <c r="F35" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G35" s="2">
+        <f t="shared" si="8"/>
         <v>44837</v>
       </c>
       <c r="H35" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="I35" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J35" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>240</v>
       </c>
       <c r="K35" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2200.2000000000003</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C36" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" ref="D36:D38" si="7">$A$1*1.1/2</f>
+        <f t="shared" ref="D36:D38" si="10">D4/2</f>
         <v>36.300000000000004</v>
       </c>
       <c r="E36" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1942.0500000000002</v>
       </c>
       <c r="F36" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G36" s="2">
+        <f t="shared" si="8"/>
         <v>44838</v>
       </c>
       <c r="H36" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="I36" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J36" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>250</v>
       </c>
       <c r="K36" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2192.0500000000002</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C37" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>53</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>36.300000000000004</v>
       </c>
       <c r="E37" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1923.9000000000003</v>
       </c>
       <c r="F37" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G37" s="2">
+        <f t="shared" si="8"/>
         <v>44839</v>
       </c>
       <c r="H37" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="I37" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J37" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>260</v>
       </c>
       <c r="K37" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2183.9000000000005</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C38" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>52.5</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>36.300000000000004</v>
       </c>
       <c r="E38" s="1">
@@ -2075,39 +2177,42 @@
         <v>1905.7500000000002</v>
       </c>
       <c r="F38" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G38" s="2">
+        <f t="shared" si="8"/>
         <v>44840</v>
       </c>
       <c r="H38" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="I38" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J38" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>270</v>
       </c>
       <c r="K38" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2175.75</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C40" s="5">
-        <f>SUM(K3:K38)</f>
-        <v>156131.1</v>
+        <f>FLOOR(SUM(K3:K38),1)</f>
+        <v>156131</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C41" s="3">
         <f>AVERAGE(C3:C38)</f>
@@ -2116,7 +2221,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
@@ -2125,11 +2230,11 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C43" s="1">
-        <f>MAX(J3:J38)</f>
-        <v>270</v>
+        <f>MAX(K3:K38)</f>
+        <v>5082.0000000000009</v>
       </c>
     </row>
   </sheetData>

--- a/LR3/table_1_66.xlsx
+++ b/LR3/table_1_66.xlsx
@@ -527,8 +527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -618,7 +618,7 @@
         <v>10</v>
       </c>
       <c r="J3" s="1">
-        <f>I3*H3</f>
+        <f>H3*I3</f>
         <v>0</v>
       </c>
       <c r="K3" s="1">
@@ -639,11 +639,11 @@
         <v>69.5</v>
       </c>
       <c r="D4" s="1">
-        <f>D3</f>
+        <f t="shared" ref="D4:D34" si="0">$A$1*1.1</f>
         <v>72.600000000000009</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E4:E37" si="0">C4*D4</f>
+        <f t="shared" ref="E4:E37" si="1">C4*D4</f>
         <v>5045.7000000000007</v>
       </c>
       <c r="F4" s="2">
@@ -655,7 +655,7 @@
         <v>44806</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" ref="H4:H38" si="1">IF(G4&lt;=F4,0,G4-F4)</f>
+        <f t="shared" ref="H4:H38" si="2">IF(G4&lt;=F4,0,G4-F4)</f>
         <v>0</v>
       </c>
       <c r="I4" s="1">
@@ -663,32 +663,32 @@
         <v>10</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" ref="J4:J38" si="2">I4*H4</f>
+        <f t="shared" ref="J4:J38" si="3">H4*I4</f>
         <v>0</v>
       </c>
       <c r="K4" s="1">
-        <f t="shared" ref="K4:K38" si="3">E4+J4</f>
+        <f t="shared" ref="K4:K38" si="4">E4+J4</f>
         <v>5045.7000000000007</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <f t="shared" ref="A5:A38" si="4">A4+1</f>
+        <f t="shared" ref="A5:A38" si="5">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" ref="C5:C38" si="5">C4-0.5</f>
+        <f t="shared" ref="C5:C38" si="6">C4-0.5</f>
         <v>69</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" ref="D5:D34" si="6">D4</f>
+        <f t="shared" si="0"/>
         <v>72.600000000000009</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5009.4000000000005</v>
       </c>
       <c r="F5" s="2">
@@ -700,7 +700,7 @@
         <v>44807</v>
       </c>
       <c r="H5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I5" s="1">
@@ -708,32 +708,32 @@
         <v>10</v>
       </c>
       <c r="J5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K5" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5009.4000000000005</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>68.5</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>72.600000000000009</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4973.1000000000004</v>
       </c>
       <c r="F6" s="2">
@@ -745,7 +745,7 @@
         <v>44808</v>
       </c>
       <c r="H6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I6" s="1">
@@ -753,32 +753,32 @@
         <v>10</v>
       </c>
       <c r="J6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K6" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4973.1000000000004</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>68</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>72.600000000000009</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4936.8</v>
       </c>
       <c r="F7" s="2">
@@ -790,7 +790,7 @@
         <v>44809</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I7" s="1">
@@ -798,32 +798,32 @@
         <v>10</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K7" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4936.8</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>67.5</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>72.600000000000009</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4900.5000000000009</v>
       </c>
       <c r="F8" s="2">
@@ -835,7 +835,7 @@
         <v>44810</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I8" s="1">
@@ -843,32 +843,32 @@
         <v>10</v>
       </c>
       <c r="J8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K8" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4900.5000000000009</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>67</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>72.600000000000009</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4864.2000000000007</v>
       </c>
       <c r="F9" s="2">
@@ -880,7 +880,7 @@
         <v>44811</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I9" s="1">
@@ -888,32 +888,32 @@
         <v>10</v>
       </c>
       <c r="J9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4864.2000000000007</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>66.5</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>72.600000000000009</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4827.9000000000005</v>
       </c>
       <c r="F10" s="2">
@@ -925,7 +925,7 @@
         <v>44812</v>
       </c>
       <c r="H10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I10" s="1">
@@ -933,32 +933,32 @@
         <v>10</v>
       </c>
       <c r="J10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K10" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4827.9000000000005</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>66</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>72.600000000000009</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4791.6000000000004</v>
       </c>
       <c r="F11" s="2">
@@ -970,7 +970,7 @@
         <v>44813</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I11" s="1">
@@ -978,32 +978,32 @@
         <v>10</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K11" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4791.6000000000004</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>65.5</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>72.600000000000009</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4755.3</v>
       </c>
       <c r="F12" s="2">
@@ -1015,7 +1015,7 @@
         <v>44814</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I12" s="1">
@@ -1023,32 +1023,32 @@
         <v>10</v>
       </c>
       <c r="J12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="K12" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4765.3</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>65</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>72.600000000000009</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4719.0000000000009</v>
       </c>
       <c r="F13" s="2">
@@ -1060,7 +1060,7 @@
         <v>44815</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="I13" s="1">
@@ -1068,32 +1068,32 @@
         <v>10</v>
       </c>
       <c r="J13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="K13" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4739.0000000000009</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>64.5</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>72.600000000000009</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4682.7000000000007</v>
       </c>
       <c r="F14" s="2">
@@ -1105,7 +1105,7 @@
         <v>44816</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I14" s="1">
@@ -1113,32 +1113,32 @@
         <v>10</v>
       </c>
       <c r="J14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="K14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4712.7000000000007</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>64</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>72.600000000000009</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4646.4000000000005</v>
       </c>
       <c r="F15" s="2">
@@ -1150,7 +1150,7 @@
         <v>44817</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="I15" s="1">
@@ -1158,32 +1158,32 @@
         <v>10</v>
       </c>
       <c r="J15" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="K15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4686.4000000000005</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>63.5</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>72.600000000000009</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4610.1000000000004</v>
       </c>
       <c r="F16" s="2">
@@ -1195,7 +1195,7 @@
         <v>44818</v>
       </c>
       <c r="H16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="I16" s="1">
@@ -1203,32 +1203,32 @@
         <v>10</v>
       </c>
       <c r="J16" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="K16" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4660.1000000000004</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>63</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>72.600000000000009</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4573.8</v>
       </c>
       <c r="F17" s="2">
@@ -1240,7 +1240,7 @@
         <v>44819</v>
       </c>
       <c r="H17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I17" s="1">
@@ -1248,32 +1248,32 @@
         <v>10</v>
       </c>
       <c r="J17" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="K17" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4633.8</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>62.5</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>72.600000000000009</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4537.5000000000009</v>
       </c>
       <c r="F18" s="2">
@@ -1285,7 +1285,7 @@
         <v>44820</v>
       </c>
       <c r="H18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="I18" s="1">
@@ -1293,32 +1293,32 @@
         <v>10</v>
       </c>
       <c r="J18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="K18" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4607.5000000000009</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>62</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>72.600000000000009</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4501.2000000000007</v>
       </c>
       <c r="F19" s="2">
@@ -1330,7 +1330,7 @@
         <v>44821</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="I19" s="1">
@@ -1338,32 +1338,32 @@
         <v>10</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="K19" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4581.2000000000007</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>61.5</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>72.600000000000009</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4464.9000000000005</v>
       </c>
       <c r="F20" s="2">
@@ -1375,7 +1375,7 @@
         <v>44822</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="I20" s="1">
@@ -1383,32 +1383,32 @@
         <v>10</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>90</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4554.9000000000005</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>61</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>72.600000000000009</v>
       </c>
       <c r="E21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4428.6000000000004</v>
       </c>
       <c r="F21" s="2">
@@ -1420,7 +1420,7 @@
         <v>44823</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="I21" s="1">
@@ -1428,32 +1428,32 @@
         <v>10</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="K21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4528.6000000000004</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60.5</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>72.600000000000009</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4392.3</v>
       </c>
       <c r="F22" s="2">
@@ -1465,7 +1465,7 @@
         <v>44824</v>
       </c>
       <c r="H22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="I22" s="1">
@@ -1473,32 +1473,32 @@
         <v>10</v>
       </c>
       <c r="J22" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>110</v>
       </c>
       <c r="K22" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4502.3</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>72.600000000000009</v>
       </c>
       <c r="E23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4356.0000000000009</v>
       </c>
       <c r="F23" s="2">
@@ -1510,7 +1510,7 @@
         <v>44825</v>
       </c>
       <c r="H23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="I23" s="1">
@@ -1518,32 +1518,32 @@
         <v>10</v>
       </c>
       <c r="J23" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="K23" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4476.0000000000009</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>59.5</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>72.600000000000009</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4319.7000000000007</v>
       </c>
       <c r="F24" s="2">
@@ -1555,7 +1555,7 @@
         <v>44826</v>
       </c>
       <c r="H24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="I24" s="1">
@@ -1563,32 +1563,32 @@
         <v>10</v>
       </c>
       <c r="J24" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>130</v>
       </c>
       <c r="K24" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4449.7000000000007</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>59</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>72.600000000000009</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4283.4000000000005</v>
       </c>
       <c r="F25" s="2">
@@ -1600,7 +1600,7 @@
         <v>44827</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="I25" s="1">
@@ -1608,32 +1608,32 @@
         <v>10</v>
       </c>
       <c r="J25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>140</v>
       </c>
       <c r="K25" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4423.4000000000005</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>58.5</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>72.600000000000009</v>
       </c>
       <c r="E26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4247.1000000000004</v>
       </c>
       <c r="F26" s="2">
@@ -1645,7 +1645,7 @@
         <v>44828</v>
       </c>
       <c r="H26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="I26" s="1">
@@ -1653,32 +1653,32 @@
         <v>10</v>
       </c>
       <c r="J26" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>150</v>
       </c>
       <c r="K26" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4397.1000000000004</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>58</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>72.600000000000009</v>
       </c>
       <c r="E27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4210.8</v>
       </c>
       <c r="F27" s="2">
@@ -1690,7 +1690,7 @@
         <v>44829</v>
       </c>
       <c r="H27" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="I27" s="1">
@@ -1698,32 +1698,32 @@
         <v>10</v>
       </c>
       <c r="J27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>160</v>
       </c>
       <c r="K27" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4370.8</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C28" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>57.5</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>72.600000000000009</v>
       </c>
       <c r="E28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4174.5000000000009</v>
       </c>
       <c r="F28" s="2">
@@ -1735,7 +1735,7 @@
         <v>44830</v>
       </c>
       <c r="H28" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="I28" s="1">
@@ -1743,32 +1743,32 @@
         <v>10</v>
       </c>
       <c r="J28" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>170</v>
       </c>
       <c r="K28" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4344.5000000000009</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C29" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>57</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>72.600000000000009</v>
       </c>
       <c r="E29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4138.2000000000007</v>
       </c>
       <c r="F29" s="2">
@@ -1780,7 +1780,7 @@
         <v>44831</v>
       </c>
       <c r="H29" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="I29" s="1">
@@ -1788,32 +1788,32 @@
         <v>10</v>
       </c>
       <c r="J29" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>180</v>
       </c>
       <c r="K29" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4318.2000000000007</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C30" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>56.5</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>72.600000000000009</v>
       </c>
       <c r="E30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4101.9000000000005</v>
       </c>
       <c r="F30" s="2">
@@ -1825,7 +1825,7 @@
         <v>44832</v>
       </c>
       <c r="H30" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="I30" s="1">
@@ -1833,32 +1833,32 @@
         <v>10</v>
       </c>
       <c r="J30" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>190</v>
       </c>
       <c r="K30" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4291.9000000000005</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C31" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>56</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>72.600000000000009</v>
       </c>
       <c r="E31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4065.6000000000004</v>
       </c>
       <c r="F31" s="2">
@@ -1870,7 +1870,7 @@
         <v>44833</v>
       </c>
       <c r="H31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="I31" s="1">
@@ -1878,32 +1878,32 @@
         <v>10</v>
       </c>
       <c r="J31" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
       <c r="K31" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4265.6000000000004</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C32" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>55.5</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>72.600000000000009</v>
       </c>
       <c r="E32" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4029.3000000000006</v>
       </c>
       <c r="F32" s="2">
@@ -1915,7 +1915,7 @@
         <v>44834</v>
       </c>
       <c r="H32" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="I32" s="1">
@@ -1923,32 +1923,32 @@
         <v>10</v>
       </c>
       <c r="J32" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>210</v>
       </c>
       <c r="K32" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4239.3000000000011</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C33" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>55</v>
       </c>
       <c r="D33" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>72.600000000000009</v>
       </c>
       <c r="E33" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3993.0000000000005</v>
       </c>
       <c r="F33" s="2">
@@ -1960,7 +1960,7 @@
         <v>44835</v>
       </c>
       <c r="H33" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="I33" s="1">
@@ -1968,32 +1968,32 @@
         <v>10</v>
       </c>
       <c r="J33" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>220</v>
       </c>
       <c r="K33" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4213</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C34" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>54.5</v>
       </c>
       <c r="D34" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>72.600000000000009</v>
       </c>
       <c r="E34" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3956.7000000000003</v>
       </c>
       <c r="F34" s="2">
@@ -2005,7 +2005,7 @@
         <v>44836</v>
       </c>
       <c r="H34" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="I34" s="1">
@@ -2013,32 +2013,32 @@
         <v>10</v>
       </c>
       <c r="J34" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>230</v>
       </c>
       <c r="K34" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4186.7000000000007</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C35" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>54</v>
       </c>
       <c r="D35" s="1">
-        <f>D3/2</f>
+        <f>($A$1*1.1)/2</f>
         <v>36.300000000000004</v>
       </c>
       <c r="E35" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1960.2000000000003</v>
       </c>
       <c r="F35" s="2">
@@ -2050,7 +2050,7 @@
         <v>44837</v>
       </c>
       <c r="H35" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="I35" s="1">
@@ -2058,32 +2058,32 @@
         <v>10</v>
       </c>
       <c r="J35" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>240</v>
       </c>
       <c r="K35" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2200.2000000000003</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C36" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" ref="D36:D38" si="10">D4/2</f>
+        <f t="shared" ref="D36:D38" si="10">($A$1*1.1)/2</f>
         <v>36.300000000000004</v>
       </c>
       <c r="E36" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1942.0500000000002</v>
       </c>
       <c r="F36" s="2">
@@ -2095,7 +2095,7 @@
         <v>44838</v>
       </c>
       <c r="H36" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="I36" s="1">
@@ -2103,24 +2103,24 @@
         <v>10</v>
       </c>
       <c r="J36" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>250</v>
       </c>
       <c r="K36" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2192.0500000000002</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C37" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>53</v>
       </c>
       <c r="D37" s="1">
@@ -2128,7 +2128,7 @@
         <v>36.300000000000004</v>
       </c>
       <c r="E37" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1923.9000000000003</v>
       </c>
       <c r="F37" s="2">
@@ -2140,7 +2140,7 @@
         <v>44839</v>
       </c>
       <c r="H37" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="I37" s="1">
@@ -2148,24 +2148,24 @@
         <v>10</v>
       </c>
       <c r="J37" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>260</v>
       </c>
       <c r="K37" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2183.9000000000005</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C38" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>52.5</v>
       </c>
       <c r="D38" s="1">
@@ -2185,7 +2185,7 @@
         <v>44840</v>
       </c>
       <c r="H38" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="I38" s="1">
@@ -2193,11 +2193,11 @@
         <v>10</v>
       </c>
       <c r="J38" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>270</v>
       </c>
       <c r="K38" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2175.75</v>
       </c>
     </row>

--- a/LR3/table_1_66.xlsx
+++ b/LR3/table_1_66.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\КГЭУ\Информационные технологии\LR_3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C5D33E9-6500-424A-9E59-DE4D3C276482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F1FBAD4-FC95-496E-9ED3-7763F017DD2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="216" windowWidth="10836" windowHeight="11904" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10536" yWindow="384" windowWidth="10836" windowHeight="11904" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -132,15 +132,6 @@
     <t>Куропаткин 8</t>
   </si>
   <si>
-    <t>Куропаткин 9</t>
-  </si>
-  <si>
-    <t>Куропаткин 10</t>
-  </si>
-  <si>
-    <t>Куропаткин 11</t>
-  </si>
-  <si>
     <t>№ квартиры</t>
   </si>
   <si>
@@ -183,10 +174,19 @@
     <t>Штраф, руб.</t>
   </si>
   <si>
-    <t>Куропаткин 12</t>
-  </si>
-  <si>
     <t>Камалов</t>
+  </si>
+  <si>
+    <t>Санников</t>
+  </si>
+  <si>
+    <t>Ахмадуллина</t>
+  </si>
+  <si>
+    <t>Роман</t>
+  </si>
+  <si>
+    <t>Мохамед</t>
   </si>
 </sst>
 </file>
@@ -588,7 +588,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="84" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -614,37 +616,37 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="K2" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -828,7 +830,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="5"/>
@@ -873,7 +875,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="5"/>
@@ -1188,7 +1190,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" si="5"/>
@@ -1724,30 +1726,30 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <f t="shared" si="4"/>
+        <f>A26+1</f>
         <v>25</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>24</v>
+      <c r="B27" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" si="5"/>
+        <f>C26-0.5</f>
         <v>58</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" si="6"/>
+        <f>D26</f>
         <v>72.600000000000009</v>
       </c>
       <c r="E27" s="1">
-        <f t="shared" si="0"/>
+        <f>C27*D27</f>
         <v>4210.8</v>
       </c>
       <c r="F27" s="3">
-        <f t="shared" si="7"/>
+        <f>$F$3</f>
         <v>44813</v>
       </c>
       <c r="G27" s="3">
-        <f t="shared" si="8"/>
+        <f>G26+1</f>
         <v>44829</v>
       </c>
       <c r="H27" s="1">
@@ -1773,7 +1775,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="5"/>
@@ -1818,7 +1820,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="5"/>
@@ -1863,7 +1865,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="5"/>
@@ -1908,7 +1910,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="5"/>
@@ -1953,7 +1955,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="5"/>
@@ -1998,7 +2000,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="5"/>
@@ -2043,7 +2045,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="5"/>
@@ -2088,7 +2090,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" si="5"/>
@@ -2099,7 +2101,7 @@
         <v>36.300000000000004</v>
       </c>
       <c r="E35" s="1">
-        <f>C35*D35</f>
+        <f t="shared" si="0"/>
         <v>1960.2000000000003</v>
       </c>
       <c r="F35" s="3">
@@ -2133,7 +2135,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="5"/>
@@ -2178,7 +2180,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="5"/>
@@ -2223,7 +2225,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="5"/>
@@ -2262,49 +2264,41 @@
         <v>2175.75</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B39" s="2"/>
-      <c r="F39" s="1"/>
-    </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B40" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C40" s="4">
         <f>FLOOR(SUM(K3:K38),1)</f>
         <v>156131</v>
       </c>
-      <c r="F40" s="1"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B41" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C41" s="1">
         <f>AVERAGE(C3:C38)</f>
         <v>61.25</v>
       </c>
-      <c r="F41" s="1"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B42" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
         <v>27</v>
       </c>
-      <c r="F42" s="1"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B43" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(K3:K38)</f>
         <v>5082.0000000000009</v>
       </c>
-      <c r="F43" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
